--- a/BackTest/2020-01-13 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-13 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3898,6 +4001,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3937,6 +4041,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3978,6 +4083,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4017,6 +4123,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4056,6 +4163,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4095,6 +4203,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4134,6 +4243,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4173,6 +4283,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4212,6 +4323,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4251,6 +4363,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4290,6 +4403,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4329,6 +4443,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4368,6 +4483,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4407,6 +4523,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4446,6 +4563,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4485,6 +4603,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4524,6 +4643,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4563,6 +4683,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4602,6 +4723,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4641,6 +4763,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4680,6 +4803,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4719,6 +4843,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4758,6 +4883,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4797,6 +4923,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4836,6 +4963,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4875,6 +5003,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4914,6 +5043,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4953,6 +5083,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,6 +5123,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5031,6 +5163,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5070,6 +5203,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5109,6 +5243,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5148,6 +5283,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5187,6 +5323,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5226,6 +5363,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5265,6 +5403,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5304,6 +5443,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5343,6 +5483,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5382,6 +5523,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5421,6 +5563,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-13 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>82.01000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="C2" t="n">
-        <v>82.01000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>82.01000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="E2" t="n">
-        <v>82.01000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1570</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>-273747.5159169512</v>
+        <v>-69308.7645</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>82.01000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>83.56</v>
       </c>
       <c r="D3" t="n">
-        <v>82.01000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>83.56</v>
       </c>
       <c r="F3" t="n">
-        <v>4469</v>
+        <v>12226.2787</v>
       </c>
       <c r="G3" t="n">
-        <v>-278216.5159169512</v>
+        <v>-81535.0432</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>2720.8</v>
+        <v>21352.7421</v>
       </c>
       <c r="G4" t="n">
-        <v>-278216.5159169512</v>
+        <v>-60182.3011</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>82</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>83.2</v>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>83.2</v>
       </c>
       <c r="F5" t="n">
-        <v>5471</v>
+        <v>21198.244</v>
       </c>
       <c r="G5" t="n">
-        <v>-278216.5159169512</v>
+        <v>-81380.54509999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" t="n">
-        <v>82</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>491</v>
+        <v>24273.1791</v>
       </c>
       <c r="G6" t="n">
-        <v>-278216.5159169512</v>
+        <v>-57107.36599999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>82.36</v>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>83.89</v>
       </c>
       <c r="E7" t="n">
-        <v>82</v>
+        <v>82.36</v>
       </c>
       <c r="F7" t="n">
-        <v>2091</v>
+        <v>83296.39341695121</v>
       </c>
       <c r="G7" t="n">
-        <v>-278216.5159169512</v>
+        <v>-140403.7594169512</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82</v>
+        <v>82.02</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>82.02</v>
       </c>
       <c r="E8" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>109359.8696</v>
+        <v>4799.98</v>
       </c>
       <c r="G8" t="n">
-        <v>-278216.5159169512</v>
+        <v>-145203.7394169512</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>82</v>
@@ -702,16 +702,16 @@
         <v>82</v>
       </c>
       <c r="F9" t="n">
-        <v>26120.92</v>
+        <v>2729.5244</v>
       </c>
       <c r="G9" t="n">
-        <v>-278216.5159169512</v>
+        <v>-147933.2638169512</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -729,25 +729,25 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.88</v>
+        <v>82</v>
       </c>
       <c r="D10" t="n">
         <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>81.88</v>
+        <v>82</v>
       </c>
       <c r="F10" t="n">
-        <v>31869.64</v>
+        <v>18213.5716</v>
       </c>
       <c r="G10" t="n">
-        <v>-310086.1559169512</v>
+        <v>-147933.2638169512</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81.88</v>
+        <v>81.92</v>
       </c>
       <c r="C11" t="n">
-        <v>81.84999999999999</v>
+        <v>81.92</v>
       </c>
       <c r="D11" t="n">
-        <v>81.88</v>
+        <v>81.92</v>
       </c>
       <c r="E11" t="n">
-        <v>81.84999999999999</v>
+        <v>81.92</v>
       </c>
       <c r="F11" t="n">
-        <v>3770</v>
+        <v>887.9932</v>
       </c>
       <c r="G11" t="n">
-        <v>-313856.1559169512</v>
+        <v>-148821.2570169512</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>81.84999999999999</v>
+        <v>82.69</v>
       </c>
       <c r="C12" t="n">
-        <v>81.84999999999999</v>
+        <v>82.69</v>
       </c>
       <c r="D12" t="n">
-        <v>81.84999999999999</v>
+        <v>82.69</v>
       </c>
       <c r="E12" t="n">
-        <v>81.84999999999999</v>
+        <v>82.69</v>
       </c>
       <c r="F12" t="n">
-        <v>9065</v>
+        <v>1955.5827</v>
       </c>
       <c r="G12" t="n">
-        <v>-313856.1559169512</v>
+        <v>-146865.6743169512</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>81.84999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>81.83</v>
+        <v>82.5</v>
       </c>
       <c r="D13" t="n">
-        <v>81.84999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="E13" t="n">
-        <v>81.83</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>5862</v>
+        <v>1959.4808</v>
       </c>
       <c r="G13" t="n">
-        <v>-319718.1559169512</v>
+        <v>-148825.1551169512</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>81.83</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>81.83</v>
+        <v>83</v>
       </c>
       <c r="D14" t="n">
-        <v>81.83</v>
+        <v>83</v>
       </c>
       <c r="E14" t="n">
-        <v>81.83</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>221</v>
+        <v>6000</v>
       </c>
       <c r="G14" t="n">
-        <v>-319718.1559169512</v>
+        <v>-142825.1551169512</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>81.83</v>
+        <v>82.12</v>
       </c>
       <c r="C15" t="n">
-        <v>81.61</v>
+        <v>82.11</v>
       </c>
       <c r="D15" t="n">
-        <v>81.83</v>
+        <v>82.12</v>
       </c>
       <c r="E15" t="n">
-        <v>81.61</v>
+        <v>82.11</v>
       </c>
       <c r="F15" t="n">
-        <v>996</v>
+        <v>1714.7297</v>
       </c>
       <c r="G15" t="n">
-        <v>-320714.1559169512</v>
+        <v>-144539.8848169512</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>81.61</v>
+        <v>82.2</v>
       </c>
       <c r="C16" t="n">
-        <v>81.55</v>
+        <v>82.11</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="E16" t="n">
-        <v>81.55</v>
+        <v>82.11</v>
       </c>
       <c r="F16" t="n">
-        <v>15039.1952</v>
+        <v>12650.7448</v>
       </c>
       <c r="G16" t="n">
-        <v>-335753.3511169512</v>
+        <v>-144539.8848169512</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>81.55</v>
+        <v>82.12</v>
       </c>
       <c r="C17" t="n">
-        <v>81.48</v>
+        <v>82.11</v>
       </c>
       <c r="D17" t="n">
-        <v>81.55</v>
+        <v>82.12</v>
       </c>
       <c r="E17" t="n">
-        <v>81.48</v>
+        <v>82.11</v>
       </c>
       <c r="F17" t="n">
-        <v>11500</v>
+        <v>580.0865</v>
       </c>
       <c r="G17" t="n">
-        <v>-347253.3511169512</v>
+        <v>-144539.8848169512</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>81.48</v>
+        <v>82.11</v>
       </c>
       <c r="C18" t="n">
-        <v>81.45</v>
+        <v>82</v>
       </c>
       <c r="D18" t="n">
-        <v>81.48</v>
+        <v>82.11</v>
       </c>
       <c r="E18" t="n">
-        <v>81.45</v>
+        <v>82</v>
       </c>
       <c r="F18" t="n">
-        <v>2705.94</v>
+        <v>45555.6916</v>
       </c>
       <c r="G18" t="n">
-        <v>-349959.2911169512</v>
+        <v>-190095.5764169512</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>81.45</v>
+        <v>82.02</v>
       </c>
       <c r="C19" t="n">
-        <v>81.45</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>81.45</v>
+        <v>82.02</v>
       </c>
       <c r="E19" t="n">
-        <v>81.45</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>1159.7164</v>
+        <v>13344.0462</v>
       </c>
       <c r="G19" t="n">
-        <v>-349959.2911169512</v>
+        <v>-176751.5302169512</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>81.45</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>81.45</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>81.45</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>81.45</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>80</v>
+        <v>4899.8442</v>
       </c>
       <c r="G20" t="n">
-        <v>-349959.2911169512</v>
+        <v>-176751.5302169512</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>81.44</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>81.44</v>
+        <v>82</v>
       </c>
       <c r="D21" t="n">
-        <v>81.44</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>81.44</v>
+        <v>82</v>
       </c>
       <c r="F21" t="n">
-        <v>5444</v>
+        <v>47755.6473</v>
       </c>
       <c r="G21" t="n">
-        <v>-355403.2911169512</v>
+        <v>-224507.1775169512</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>81.45</v>
+        <v>82</v>
       </c>
       <c r="C22" t="n">
-        <v>81.45</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>81.45</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>81.45</v>
+        <v>82</v>
       </c>
       <c r="F22" t="n">
-        <v>614.6685</v>
+        <v>13322.6357</v>
       </c>
       <c r="G22" t="n">
-        <v>-354788.6226169512</v>
+        <v>-211184.5418169512</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>81.45</v>
+        <v>82.03</v>
       </c>
       <c r="C23" t="n">
-        <v>81.39</v>
+        <v>82</v>
       </c>
       <c r="D23" t="n">
-        <v>81.45</v>
+        <v>82.03</v>
       </c>
       <c r="E23" t="n">
-        <v>81.39</v>
+        <v>82</v>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>43974.3287</v>
       </c>
       <c r="G23" t="n">
-        <v>-359788.6226169512</v>
+        <v>-255158.8705169511</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>81.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>81.39</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>81.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>81.39</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>2500</v>
+        <v>32.6877</v>
       </c>
       <c r="G24" t="n">
-        <v>-359788.6226169512</v>
+        <v>-255126.1828169511</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>81.39</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>81.37</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>81.39</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>81.37</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>21384.3878</v>
+        <v>299.4733</v>
       </c>
       <c r="G25" t="n">
-        <v>-381173.0104169512</v>
+        <v>-255425.6561169511</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>81.37</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>81.37</v>
+        <v>82.02</v>
       </c>
       <c r="D26" t="n">
-        <v>81.37</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>81.37</v>
+        <v>82.02</v>
       </c>
       <c r="F26" t="n">
-        <v>9355.669599999999</v>
+        <v>1330.8502</v>
       </c>
       <c r="G26" t="n">
-        <v>-381173.0104169512</v>
+        <v>-254094.8059169512</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>81.37</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>81.33</v>
+        <v>82.03</v>
       </c>
       <c r="D27" t="n">
-        <v>81.37</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>81.33</v>
+        <v>82.03</v>
       </c>
       <c r="F27" t="n">
-        <v>3310</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="n">
-        <v>-384483.0104169512</v>
+        <v>-250094.8059169512</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>81.33</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>81.33</v>
+        <v>82.02</v>
       </c>
       <c r="D28" t="n">
-        <v>81.33</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>81.33</v>
+        <v>82.02</v>
       </c>
       <c r="F28" t="n">
-        <v>1500</v>
+        <v>4186</v>
       </c>
       <c r="G28" t="n">
-        <v>-384483.0104169512</v>
+        <v>-254280.8059169512</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>81.98</v>
+        <v>82.02</v>
       </c>
       <c r="C29" t="n">
-        <v>81.98</v>
+        <v>82.02</v>
       </c>
       <c r="D29" t="n">
-        <v>81.98</v>
+        <v>82.02</v>
       </c>
       <c r="E29" t="n">
-        <v>81.98</v>
+        <v>82.02</v>
       </c>
       <c r="F29" t="n">
-        <v>4320</v>
+        <v>2500</v>
       </c>
       <c r="G29" t="n">
-        <v>-380163.0104169512</v>
+        <v>-254280.8059169512</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>81.48</v>
+        <v>82.02</v>
       </c>
       <c r="C30" t="n">
-        <v>81.48</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>81.48</v>
+        <v>82.02</v>
       </c>
       <c r="E30" t="n">
-        <v>81.48</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>5900</v>
+        <v>19466.71</v>
       </c>
       <c r="G30" t="n">
-        <v>-386063.0104169512</v>
+        <v>-273747.5159169512</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>81.98999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>81.98999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>5056.095</v>
+        <v>1570</v>
       </c>
       <c r="G31" t="n">
-        <v>-381006.9154169512</v>
+        <v>-273747.5159169512</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C32" t="n">
         <v>82</v>
       </c>
       <c r="D32" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E32" t="n">
         <v>82</v>
       </c>
       <c r="F32" t="n">
-        <v>4487.0167</v>
+        <v>4469</v>
       </c>
       <c r="G32" t="n">
-        <v>-381006.9154169512</v>
+        <v>-278216.5159169512</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1557,19 +1557,19 @@
         <v>82</v>
       </c>
       <c r="C33" t="n">
-        <v>81.48999999999999</v>
+        <v>82</v>
       </c>
       <c r="D33" t="n">
         <v>82</v>
       </c>
       <c r="E33" t="n">
-        <v>81.48999999999999</v>
+        <v>82</v>
       </c>
       <c r="F33" t="n">
-        <v>17562.02</v>
+        <v>2720.8</v>
       </c>
       <c r="G33" t="n">
-        <v>-398568.9354169513</v>
+        <v>-278216.5159169512</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>81.56</v>
+        <v>82</v>
       </c>
       <c r="C34" t="n">
-        <v>81.56</v>
+        <v>82</v>
       </c>
       <c r="D34" t="n">
-        <v>81.56</v>
+        <v>82</v>
       </c>
       <c r="E34" t="n">
-        <v>81.56</v>
+        <v>82</v>
       </c>
       <c r="F34" t="n">
-        <v>262</v>
+        <v>5471</v>
       </c>
       <c r="G34" t="n">
-        <v>-398306.9354169513</v>
+        <v>-278216.5159169512</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="C35" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="D35" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="E35" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>491</v>
       </c>
       <c r="G35" t="n">
-        <v>-397306.9354169513</v>
+        <v>-278216.5159169512</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>81.58</v>
+        <v>82</v>
       </c>
       <c r="C36" t="n">
-        <v>81.48999999999999</v>
+        <v>82</v>
       </c>
       <c r="D36" t="n">
-        <v>81.58</v>
+        <v>82</v>
       </c>
       <c r="E36" t="n">
-        <v>81.48999999999999</v>
+        <v>82</v>
       </c>
       <c r="F36" t="n">
-        <v>50122.82</v>
+        <v>2091</v>
       </c>
       <c r="G36" t="n">
-        <v>-447429.7554169513</v>
+        <v>-278216.5159169512</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>81.48999999999999</v>
+        <v>82</v>
       </c>
       <c r="C37" t="n">
-        <v>81.48</v>
+        <v>82</v>
       </c>
       <c r="D37" t="n">
-        <v>81.48999999999999</v>
+        <v>82</v>
       </c>
       <c r="E37" t="n">
-        <v>81.48</v>
+        <v>82</v>
       </c>
       <c r="F37" t="n">
-        <v>16711.32</v>
+        <v>109359.8696</v>
       </c>
       <c r="G37" t="n">
-        <v>-464141.0754169513</v>
+        <v>-278216.5159169512</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>81.48</v>
+        <v>82</v>
       </c>
       <c r="C38" t="n">
-        <v>81.48</v>
+        <v>82</v>
       </c>
       <c r="D38" t="n">
-        <v>81.48</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>81.48</v>
+        <v>82</v>
       </c>
       <c r="F38" t="n">
-        <v>15070</v>
+        <v>26120.92</v>
       </c>
       <c r="G38" t="n">
-        <v>-464141.0754169513</v>
+        <v>-278216.5159169512</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="C39" t="n">
-        <v>81.5</v>
+        <v>81.88</v>
       </c>
       <c r="D39" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="E39" t="n">
-        <v>81.5</v>
+        <v>81.88</v>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>31869.64</v>
       </c>
       <c r="G39" t="n">
-        <v>-462141.0754169513</v>
+        <v>-310086.1559169512</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>81.5</v>
+        <v>81.88</v>
       </c>
       <c r="C40" t="n">
-        <v>81.5</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>81.5</v>
+        <v>81.88</v>
       </c>
       <c r="E40" t="n">
-        <v>81.5</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>9500</v>
+        <v>3770</v>
       </c>
       <c r="G40" t="n">
-        <v>-462141.0754169513</v>
+        <v>-313856.1559169512</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>82</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>82</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>82</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>82</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>22784</v>
+        <v>9065</v>
       </c>
       <c r="G41" t="n">
-        <v>-439357.0754169513</v>
+        <v>-313856.1559169512</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>82</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>82</v>
+        <v>81.83</v>
       </c>
       <c r="D42" t="n">
-        <v>82</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>82</v>
+        <v>81.83</v>
       </c>
       <c r="F42" t="n">
-        <v>48653.96</v>
+        <v>5862</v>
       </c>
       <c r="G42" t="n">
-        <v>-439357.0754169513</v>
+        <v>-319718.1559169512</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>82</v>
+        <v>81.83</v>
       </c>
       <c r="C43" t="n">
-        <v>82</v>
+        <v>81.83</v>
       </c>
       <c r="D43" t="n">
-        <v>82</v>
+        <v>81.83</v>
       </c>
       <c r="E43" t="n">
-        <v>82</v>
+        <v>81.83</v>
       </c>
       <c r="F43" t="n">
-        <v>12843.79</v>
+        <v>221</v>
       </c>
       <c r="G43" t="n">
-        <v>-439357.0754169513</v>
+        <v>-319718.1559169512</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>82</v>
+        <v>81.83</v>
       </c>
       <c r="C44" t="n">
-        <v>82</v>
+        <v>81.61</v>
       </c>
       <c r="D44" t="n">
-        <v>82</v>
+        <v>81.83</v>
       </c>
       <c r="E44" t="n">
-        <v>82</v>
+        <v>81.61</v>
       </c>
       <c r="F44" t="n">
-        <v>1509.74</v>
+        <v>996</v>
       </c>
       <c r="G44" t="n">
-        <v>-439357.0754169513</v>
+        <v>-320714.1559169512</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>82</v>
+        <v>81.61</v>
       </c>
       <c r="C45" t="n">
-        <v>82</v>
+        <v>81.55</v>
       </c>
       <c r="D45" t="n">
         <v>82</v>
       </c>
       <c r="E45" t="n">
-        <v>82</v>
+        <v>81.55</v>
       </c>
       <c r="F45" t="n">
-        <v>5097.35</v>
+        <v>15039.1952</v>
       </c>
       <c r="G45" t="n">
-        <v>-439357.0754169513</v>
+        <v>-335753.3511169512</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>82.01000000000001</v>
+        <v>81.55</v>
       </c>
       <c r="C46" t="n">
-        <v>82.01000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="D46" t="n">
-        <v>82.01000000000001</v>
+        <v>81.55</v>
       </c>
       <c r="E46" t="n">
-        <v>82.01000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="F46" t="n">
-        <v>1650</v>
+        <v>11500</v>
       </c>
       <c r="G46" t="n">
-        <v>-437707.0754169513</v>
+        <v>-347253.3511169512</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>82.01000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="C47" t="n">
-        <v>82.01000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="D47" t="n">
-        <v>82.01000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="E47" t="n">
-        <v>82.01000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="F47" t="n">
-        <v>6951.07</v>
+        <v>2705.94</v>
       </c>
       <c r="G47" t="n">
-        <v>-437707.0754169513</v>
+        <v>-349959.2911169512</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>82.01000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="C48" t="n">
-        <v>82.01000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="D48" t="n">
-        <v>82.01000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="E48" t="n">
-        <v>82.01000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="F48" t="n">
-        <v>1337.92</v>
+        <v>1159.7164</v>
       </c>
       <c r="G48" t="n">
-        <v>-437707.0754169513</v>
+        <v>-349959.2911169512</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>82.68000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="C49" t="n">
-        <v>82.68000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="D49" t="n">
-        <v>82.68000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="E49" t="n">
-        <v>82.68000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="F49" t="n">
-        <v>10.5494</v>
+        <v>80</v>
       </c>
       <c r="G49" t="n">
-        <v>-437696.5260169512</v>
+        <v>-349959.2911169512</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>82.01000000000001</v>
+        <v>81.44</v>
       </c>
       <c r="C50" t="n">
-        <v>82.01000000000001</v>
+        <v>81.44</v>
       </c>
       <c r="D50" t="n">
-        <v>82.01000000000001</v>
+        <v>81.44</v>
       </c>
       <c r="E50" t="n">
-        <v>82.01000000000001</v>
+        <v>81.44</v>
       </c>
       <c r="F50" t="n">
-        <v>176</v>
+        <v>5444</v>
       </c>
       <c r="G50" t="n">
-        <v>-437872.5260169512</v>
+        <v>-355403.2911169512</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>82.01000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="C51" t="n">
-        <v>81.5</v>
+        <v>81.45</v>
       </c>
       <c r="D51" t="n">
-        <v>82.01000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="E51" t="n">
-        <v>81.5</v>
+        <v>81.45</v>
       </c>
       <c r="F51" t="n">
-        <v>4386.84</v>
+        <v>614.6685</v>
       </c>
       <c r="G51" t="n">
-        <v>-442259.3660169513</v>
+        <v>-354788.6226169512</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>81.5</v>
+        <v>81.45</v>
       </c>
       <c r="C52" t="n">
-        <v>81.5</v>
+        <v>81.39</v>
       </c>
       <c r="D52" t="n">
-        <v>81.5</v>
+        <v>81.45</v>
       </c>
       <c r="E52" t="n">
-        <v>81.5</v>
+        <v>81.39</v>
       </c>
       <c r="F52" t="n">
-        <v>25600</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="n">
-        <v>-442259.3660169513</v>
+        <v>-359788.6226169512</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>82.40000000000001</v>
+        <v>81.39</v>
       </c>
       <c r="D53" t="n">
-        <v>82.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>82.40000000000001</v>
+        <v>81.39</v>
       </c>
       <c r="F53" t="n">
-        <v>7.6464</v>
+        <v>2500</v>
       </c>
       <c r="G53" t="n">
-        <v>-442251.7196169512</v>
+        <v>-359788.6226169512</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81.51000000000001</v>
+        <v>81.39</v>
       </c>
       <c r="C54" t="n">
-        <v>81.51000000000001</v>
+        <v>81.37</v>
       </c>
       <c r="D54" t="n">
-        <v>81.51000000000001</v>
+        <v>81.39</v>
       </c>
       <c r="E54" t="n">
-        <v>81.51000000000001</v>
+        <v>81.37</v>
       </c>
       <c r="F54" t="n">
-        <v>1166.6791</v>
+        <v>21384.3878</v>
       </c>
       <c r="G54" t="n">
-        <v>-443418.3987169513</v>
+        <v>-381173.0104169512</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>81.52</v>
+        <v>81.37</v>
       </c>
       <c r="C55" t="n">
-        <v>81.52</v>
+        <v>81.37</v>
       </c>
       <c r="D55" t="n">
-        <v>81.52</v>
+        <v>81.37</v>
       </c>
       <c r="E55" t="n">
-        <v>81.52</v>
+        <v>81.37</v>
       </c>
       <c r="F55" t="n">
-        <v>419.7753</v>
+        <v>9355.669599999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-442998.6234169513</v>
+        <v>-381173.0104169512</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>81.52</v>
+        <v>81.37</v>
       </c>
       <c r="C56" t="n">
-        <v>81.52</v>
+        <v>81.33</v>
       </c>
       <c r="D56" t="n">
-        <v>81.52</v>
+        <v>81.37</v>
       </c>
       <c r="E56" t="n">
-        <v>81.52</v>
+        <v>81.33</v>
       </c>
       <c r="F56" t="n">
-        <v>109.7721</v>
+        <v>3310</v>
       </c>
       <c r="G56" t="n">
-        <v>-442998.6234169513</v>
+        <v>-384483.0104169512</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>81.61</v>
+        <v>81.33</v>
       </c>
       <c r="C57" t="n">
-        <v>81.61</v>
+        <v>81.33</v>
       </c>
       <c r="D57" t="n">
-        <v>81.61</v>
+        <v>81.33</v>
       </c>
       <c r="E57" t="n">
-        <v>81.61</v>
+        <v>81.33</v>
       </c>
       <c r="F57" t="n">
-        <v>12284.9807</v>
+        <v>1500</v>
       </c>
       <c r="G57" t="n">
-        <v>-430713.6427169513</v>
+        <v>-384483.0104169512</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>82.37</v>
+        <v>81.98</v>
       </c>
       <c r="C58" t="n">
-        <v>81.59999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="D58" t="n">
-        <v>82.37</v>
+        <v>81.98</v>
       </c>
       <c r="E58" t="n">
-        <v>81.59999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="F58" t="n">
-        <v>35301.4265</v>
+        <v>4320</v>
       </c>
       <c r="G58" t="n">
-        <v>-466015.0692169513</v>
+        <v>-380163.0104169512</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>81.65000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="C59" t="n">
-        <v>81.65000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="D59" t="n">
-        <v>81.65000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="E59" t="n">
-        <v>81.65000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="F59" t="n">
-        <v>3784.4414</v>
+        <v>5900</v>
       </c>
       <c r="G59" t="n">
-        <v>-462230.6278169513</v>
+        <v>-386063.0104169512</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>82.55</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>82.55</v>
+        <v>82</v>
       </c>
       <c r="D60" t="n">
-        <v>82.55</v>
+        <v>82</v>
       </c>
       <c r="E60" t="n">
-        <v>82.55</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>604.183</v>
+        <v>5056.095</v>
       </c>
       <c r="G60" t="n">
-        <v>-461626.4448169512</v>
+        <v>-381006.9154169512</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>81.66</v>
+        <v>82</v>
       </c>
       <c r="C61" t="n">
-        <v>81.66</v>
+        <v>82</v>
       </c>
       <c r="D61" t="n">
-        <v>81.66</v>
+        <v>82</v>
       </c>
       <c r="E61" t="n">
-        <v>81.66</v>
+        <v>82</v>
       </c>
       <c r="F61" t="n">
-        <v>1500</v>
+        <v>4487.0167</v>
       </c>
       <c r="G61" t="n">
-        <v>-463126.4448169512</v>
+        <v>-381006.9154169512</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>82.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="C62" t="n">
-        <v>82.40000000000001</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>82.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="E62" t="n">
-        <v>82.40000000000001</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>17562.02</v>
       </c>
       <c r="G62" t="n">
-        <v>-463106.4448169512</v>
+        <v>-398568.9354169513</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>82</v>
+        <v>81.56</v>
       </c>
       <c r="C63" t="n">
-        <v>81.66</v>
+        <v>81.56</v>
       </c>
       <c r="D63" t="n">
-        <v>82</v>
+        <v>81.56</v>
       </c>
       <c r="E63" t="n">
-        <v>81.66</v>
+        <v>81.56</v>
       </c>
       <c r="F63" t="n">
-        <v>22117.59</v>
+        <v>262</v>
       </c>
       <c r="G63" t="n">
-        <v>-485224.0348169513</v>
+        <v>-398306.9354169513</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>81.7</v>
+        <v>81.67</v>
       </c>
       <c r="C64" t="n">
-        <v>81.7</v>
+        <v>81.67</v>
       </c>
       <c r="D64" t="n">
-        <v>81.7</v>
+        <v>81.67</v>
       </c>
       <c r="E64" t="n">
-        <v>81.7</v>
+        <v>81.67</v>
       </c>
       <c r="F64" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>-482224.0348169513</v>
+        <v>-397306.9354169513</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>81.7</v>
+        <v>81.58</v>
       </c>
       <c r="C65" t="n">
-        <v>81.7</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>81.7</v>
+        <v>81.58</v>
       </c>
       <c r="E65" t="n">
-        <v>81.7</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>30336.25</v>
+        <v>50122.82</v>
       </c>
       <c r="G65" t="n">
-        <v>-482224.0348169513</v>
+        <v>-447429.7554169513</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>81.7</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>81.7</v>
+        <v>81.48</v>
       </c>
       <c r="D66" t="n">
-        <v>81.7</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>81.7</v>
+        <v>81.48</v>
       </c>
       <c r="F66" t="n">
-        <v>499.2</v>
+        <v>16711.32</v>
       </c>
       <c r="G66" t="n">
-        <v>-482224.0348169513</v>
+        <v>-464141.0754169513</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>81.7</v>
+        <v>81.48</v>
       </c>
       <c r="C67" t="n">
-        <v>81.7</v>
+        <v>81.48</v>
       </c>
       <c r="D67" t="n">
-        <v>81.7</v>
+        <v>81.48</v>
       </c>
       <c r="E67" t="n">
-        <v>81.7</v>
+        <v>81.48</v>
       </c>
       <c r="F67" t="n">
-        <v>4000</v>
+        <v>15070</v>
       </c>
       <c r="G67" t="n">
-        <v>-482224.0348169513</v>
+        <v>-464141.0754169513</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>81.98999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="C68" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="D68" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="E68" t="n">
-        <v>81.98999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="F68" t="n">
-        <v>25424.3882</v>
+        <v>2000</v>
       </c>
       <c r="G68" t="n">
-        <v>-456799.6466169513</v>
+        <v>-462141.0754169513</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="C69" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="D69" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="E69" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="F69" t="n">
-        <v>23070</v>
+        <v>9500</v>
       </c>
       <c r="G69" t="n">
-        <v>-456799.6466169513</v>
+        <v>-462141.0754169513</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>82.55</v>
+        <v>82</v>
       </c>
       <c r="C70" t="n">
-        <v>82.55</v>
+        <v>82</v>
       </c>
       <c r="D70" t="n">
-        <v>82.55</v>
+        <v>82</v>
       </c>
       <c r="E70" t="n">
-        <v>82.55</v>
+        <v>82</v>
       </c>
       <c r="F70" t="n">
-        <v>30</v>
+        <v>22784</v>
       </c>
       <c r="G70" t="n">
-        <v>-456769.6466169513</v>
+        <v>-439357.0754169513</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>82</v>
       </c>
       <c r="F71" t="n">
-        <v>1505.6118</v>
+        <v>48653.96</v>
       </c>
       <c r="G71" t="n">
-        <v>-458275.2584169513</v>
+        <v>-439357.0754169513</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>82</v>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>12843.79</v>
       </c>
       <c r="G72" t="n">
-        <v>-458275.2584169513</v>
+        <v>-439357.0754169513</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>82</v>
       </c>
       <c r="F73" t="n">
-        <v>16944</v>
+        <v>1509.74</v>
       </c>
       <c r="G73" t="n">
-        <v>-458275.2584169513</v>
+        <v>-439357.0754169513</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>82.5</v>
+        <v>82</v>
       </c>
       <c r="C74" t="n">
-        <v>82.55</v>
+        <v>82</v>
       </c>
       <c r="D74" t="n">
-        <v>82.55</v>
+        <v>82</v>
       </c>
       <c r="E74" t="n">
-        <v>81.72</v>
+        <v>82</v>
       </c>
       <c r="F74" t="n">
-        <v>2179.9327</v>
+        <v>5097.35</v>
       </c>
       <c r="G74" t="n">
-        <v>-456095.3257169513</v>
+        <v>-439357.0754169513</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>82.81999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>82.81999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>82.81999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>82.81999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>50</v>
+        <v>1650</v>
       </c>
       <c r="G75" t="n">
-        <v>-456045.3257169513</v>
+        <v>-437707.0754169513</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>82.81999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>82.81999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>82.81999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>82.81999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>132.818159864767</v>
+        <v>6951.07</v>
       </c>
       <c r="G76" t="n">
-        <v>-456045.3257169513</v>
+        <v>-437707.0754169513</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,31 +3138,35 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>82.56</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>82.56</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>82.56</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>82.56</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>22.03</v>
+        <v>1337.92</v>
       </c>
       <c r="G77" t="n">
-        <v>-456067.3557169513</v>
+        <v>-437707.0754169513</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="K77" t="n">
+        <v>82.01000000000001</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3174,32 +3178,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>82.81999999999999</v>
+        <v>82.68000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>82.81999999999999</v>
+        <v>82.68000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>82.81999999999999</v>
+        <v>82.68000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>82.81999999999999</v>
+        <v>82.68000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>10.5494</v>
       </c>
       <c r="G78" t="n">
-        <v>-456057.3557169513</v>
+        <v>-437696.5260169512</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="K78" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3222,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>82.55</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>81.73999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>82.55</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>81.73999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>2285</v>
+        <v>176</v>
       </c>
       <c r="G79" t="n">
-        <v>-458342.3557169513</v>
+        <v>-437872.5260169512</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3234,8 +3246,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3246,22 +3264,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>82.7</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>82.7</v>
+        <v>81.5</v>
       </c>
       <c r="D80" t="n">
-        <v>82.7</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>82.7</v>
+        <v>81.5</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>4386.84</v>
       </c>
       <c r="G80" t="n">
-        <v>-458332.3557169513</v>
+        <v>-442259.3660169513</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,31 +3300,35 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>82.7</v>
+        <v>81.5</v>
       </c>
       <c r="C81" t="n">
-        <v>82.7</v>
+        <v>81.5</v>
       </c>
       <c r="D81" t="n">
-        <v>82.7</v>
+        <v>81.5</v>
       </c>
       <c r="E81" t="n">
-        <v>82.7</v>
+        <v>81.5</v>
       </c>
       <c r="F81" t="n">
-        <v>44.9511</v>
+        <v>25600</v>
       </c>
       <c r="G81" t="n">
-        <v>-458332.3557169513</v>
+        <v>-442259.3660169513</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>81.5</v>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
@@ -3318,32 +3340,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>7.6464</v>
       </c>
       <c r="G82" t="n">
-        <v>-458342.3557169513</v>
+        <v>-442251.7196169512</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3354,32 +3384,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>81.72</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>81.72</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>81.72</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>81.72</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>10225</v>
+        <v>1166.6791</v>
       </c>
       <c r="G83" t="n">
-        <v>-468567.3557169513</v>
+        <v>-443418.3987169513</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K83" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3428,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>82</v>
+        <v>81.52</v>
       </c>
       <c r="C84" t="n">
-        <v>82</v>
+        <v>81.52</v>
       </c>
       <c r="D84" t="n">
-        <v>82</v>
+        <v>81.52</v>
       </c>
       <c r="E84" t="n">
-        <v>82</v>
+        <v>81.52</v>
       </c>
       <c r="F84" t="n">
-        <v>4000</v>
+        <v>419.7753</v>
       </c>
       <c r="G84" t="n">
-        <v>-464567.3557169513</v>
+        <v>-442998.6234169513</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,31 +3464,35 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>82</v>
+        <v>81.52</v>
       </c>
       <c r="C85" t="n">
-        <v>82</v>
+        <v>81.52</v>
       </c>
       <c r="D85" t="n">
-        <v>82</v>
+        <v>81.52</v>
       </c>
       <c r="E85" t="n">
-        <v>82</v>
+        <v>81.52</v>
       </c>
       <c r="F85" t="n">
-        <v>6550.1045</v>
+        <v>109.7721</v>
       </c>
       <c r="G85" t="n">
-        <v>-464567.3557169513</v>
+        <v>-442998.6234169513</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="K85" t="n">
+        <v>81.52</v>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
@@ -3462,22 +3504,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>82.09999999999999</v>
+        <v>81.61</v>
       </c>
       <c r="C86" t="n">
-        <v>82.09999999999999</v>
+        <v>81.61</v>
       </c>
       <c r="D86" t="n">
-        <v>82.09999999999999</v>
+        <v>81.61</v>
       </c>
       <c r="E86" t="n">
-        <v>82.09999999999999</v>
+        <v>81.61</v>
       </c>
       <c r="F86" t="n">
-        <v>27963.8225</v>
+        <v>12284.9807</v>
       </c>
       <c r="G86" t="n">
-        <v>-436603.5332169513</v>
+        <v>-430713.6427169513</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3486,8 +3528,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3498,32 +3546,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>82.01000000000001</v>
+        <v>82.37</v>
       </c>
       <c r="C87" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>82.01000000000001</v>
+        <v>82.37</v>
       </c>
       <c r="E87" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>100000</v>
+        <v>35301.4265</v>
       </c>
       <c r="G87" t="n">
-        <v>-536603.5332169513</v>
+        <v>-466015.0692169513</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="K87" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3590,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>81.89</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>81.89</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>81.89</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>81.89</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>2500</v>
+        <v>3784.4414</v>
       </c>
       <c r="G88" t="n">
-        <v>-534103.5332169513</v>
+        <v>-462230.6278169513</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3626,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>82.2</v>
+        <v>82.55</v>
       </c>
       <c r="C89" t="n">
-        <v>82.2</v>
+        <v>82.55</v>
       </c>
       <c r="D89" t="n">
-        <v>82.2</v>
+        <v>82.55</v>
       </c>
       <c r="E89" t="n">
-        <v>82.19</v>
+        <v>82.55</v>
       </c>
       <c r="F89" t="n">
-        <v>5360.0313</v>
+        <v>604.183</v>
       </c>
       <c r="G89" t="n">
-        <v>-528743.5019169513</v>
+        <v>-461626.4448169512</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3662,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>82.2</v>
+        <v>81.66</v>
       </c>
       <c r="C90" t="n">
-        <v>82.2</v>
+        <v>81.66</v>
       </c>
       <c r="D90" t="n">
-        <v>82.2</v>
+        <v>81.66</v>
       </c>
       <c r="E90" t="n">
-        <v>82.2</v>
+        <v>81.66</v>
       </c>
       <c r="F90" t="n">
-        <v>1041.4206</v>
+        <v>1500</v>
       </c>
       <c r="G90" t="n">
-        <v>-528743.5019169513</v>
+        <v>-463126.4448169512</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3698,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>81.81</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>81.79000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>81.81</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>81.79000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>14703.3917</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>-543446.8936169513</v>
+        <v>-463106.4448169512</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3681,19 +3737,19 @@
         <v>82</v>
       </c>
       <c r="C92" t="n">
-        <v>82</v>
+        <v>81.66</v>
       </c>
       <c r="D92" t="n">
         <v>82</v>
       </c>
       <c r="E92" t="n">
-        <v>82</v>
+        <v>81.66</v>
       </c>
       <c r="F92" t="n">
-        <v>11533.3143</v>
+        <v>22117.59</v>
       </c>
       <c r="G92" t="n">
-        <v>-531913.5793169513</v>
+        <v>-485224.0348169513</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,31 +3770,35 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="C93" t="n">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="D93" t="n">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="E93" t="n">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="F93" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="G93" t="n">
-        <v>-531906.5793169513</v>
+        <v>-482224.0348169513</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="K93" t="n">
+        <v>81.66</v>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
@@ -3750,32 +3810,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>81.79000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="C94" t="n">
-        <v>81.79000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="D94" t="n">
-        <v>81.79000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="E94" t="n">
-        <v>81.79000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="F94" t="n">
-        <v>1620.4253</v>
+        <v>30336.25</v>
       </c>
       <c r="G94" t="n">
-        <v>-533527.0046169513</v>
+        <v>-482224.0348169513</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="K94" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3786,32 +3854,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>81.79000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="C95" t="n">
-        <v>81.79000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="D95" t="n">
-        <v>81.79000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="E95" t="n">
-        <v>81.79000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="F95" t="n">
-        <v>724.6152</v>
+        <v>499.2</v>
       </c>
       <c r="G95" t="n">
-        <v>-533527.0046169513</v>
+        <v>-482224.0348169513</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="K95" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3822,31 +3898,35 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>81.98</v>
+        <v>81.7</v>
       </c>
       <c r="C96" t="n">
-        <v>81.98</v>
+        <v>81.7</v>
       </c>
       <c r="D96" t="n">
-        <v>81.98</v>
+        <v>81.7</v>
       </c>
       <c r="E96" t="n">
-        <v>81.98</v>
+        <v>81.7</v>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>4000</v>
       </c>
       <c r="G96" t="n">
-        <v>-533520.0046169513</v>
+        <v>-482224.0348169513</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="K96" t="n">
+        <v>81.7</v>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
@@ -3858,32 +3938,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>81.72</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>81.72</v>
+        <v>82</v>
       </c>
       <c r="D97" t="n">
-        <v>81.72</v>
+        <v>82</v>
       </c>
       <c r="E97" t="n">
-        <v>81.72</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>10276.9998</v>
+        <v>25424.3882</v>
       </c>
       <c r="G97" t="n">
-        <v>-543797.0044169513</v>
+        <v>-456799.6466169513</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="K97" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3894,32 +3982,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>81.72</v>
+        <v>82</v>
       </c>
       <c r="C98" t="n">
-        <v>81.72</v>
+        <v>82</v>
       </c>
       <c r="D98" t="n">
-        <v>81.72</v>
+        <v>82</v>
       </c>
       <c r="E98" t="n">
-        <v>81.72</v>
+        <v>82</v>
       </c>
       <c r="F98" t="n">
-        <v>6698.9999</v>
+        <v>23070</v>
       </c>
       <c r="G98" t="n">
-        <v>-543797.0044169513</v>
+        <v>-456799.6466169513</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>82</v>
+      </c>
+      <c r="K98" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3930,31 +4026,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>81.72</v>
+        <v>82.55</v>
       </c>
       <c r="C99" t="n">
-        <v>81.72</v>
+        <v>82.55</v>
       </c>
       <c r="D99" t="n">
-        <v>81.72</v>
+        <v>82.55</v>
       </c>
       <c r="E99" t="n">
-        <v>81.72</v>
+        <v>82.55</v>
       </c>
       <c r="F99" t="n">
-        <v>402.1024</v>
+        <v>30</v>
       </c>
       <c r="G99" t="n">
-        <v>-543797.0044169513</v>
+        <v>-456769.6466169513</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>82</v>
+      </c>
+      <c r="K99" t="n">
+        <v>82</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3966,22 +4066,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>81.72</v>
+        <v>82</v>
       </c>
       <c r="C100" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="D100" t="n">
-        <v>81.72</v>
+        <v>82</v>
       </c>
       <c r="E100" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="F100" t="n">
-        <v>17619.2532</v>
+        <v>1505.6118</v>
       </c>
       <c r="G100" t="n">
-        <v>-561416.2576169514</v>
+        <v>-458275.2584169513</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -3990,12 +4090,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+        <v>82.55</v>
+      </c>
+      <c r="K100" t="n">
+        <v>82</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4008,34 +4110,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>81.61</v>
+        <v>82</v>
       </c>
       <c r="C101" t="n">
-        <v>81.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="D101" t="n">
-        <v>81.61</v>
+        <v>82</v>
       </c>
       <c r="E101" t="n">
-        <v>81.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="F101" t="n">
-        <v>1969.7</v>
+        <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>-563385.9576169513</v>
+        <v>-458275.2584169513</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>82</v>
+      </c>
+      <c r="K101" t="n">
+        <v>82</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4048,22 +4154,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>81.61</v>
+        <v>82</v>
       </c>
       <c r="C102" t="n">
-        <v>81.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="D102" t="n">
-        <v>81.61</v>
+        <v>82</v>
       </c>
       <c r="E102" t="n">
-        <v>81.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="F102" t="n">
-        <v>16471.9999</v>
+        <v>16944</v>
       </c>
       <c r="G102" t="n">
-        <v>-563385.9576169513</v>
+        <v>-458275.2584169513</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -4072,14 +4178,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K102" t="n">
+        <v>82</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4090,34 +4194,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>81.61</v>
+        <v>82.5</v>
       </c>
       <c r="C103" t="n">
-        <v>81.59999999999999</v>
+        <v>82.55</v>
       </c>
       <c r="D103" t="n">
-        <v>81.61</v>
+        <v>82.55</v>
       </c>
       <c r="E103" t="n">
-        <v>81.59999999999999</v>
+        <v>81.72</v>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>2179.9327</v>
       </c>
       <c r="G103" t="n">
-        <v>-563385.9576169513</v>
+        <v>-456095.3257169513</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>82</v>
+      </c>
+      <c r="K103" t="n">
+        <v>82</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4130,31 +4238,35 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>81.90000000000001</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>81.90000000000001</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>81.90000000000001</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>81.90000000000001</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>321.3668</v>
+        <v>50</v>
       </c>
       <c r="G104" t="n">
-        <v>-563064.5908169514</v>
+        <v>-456045.3257169513</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="K104" t="n">
+        <v>82</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4170,22 +4282,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>81.91</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>81.59999999999999</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>81.91</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>81.59999999999999</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>1261.6098</v>
+        <v>132.818159864767</v>
       </c>
       <c r="G105" t="n">
-        <v>-564326.2006169513</v>
+        <v>-456045.3257169513</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4194,7 +4306,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>82</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4210,22 +4324,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>81.59999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="C106" t="n">
-        <v>81.59999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="D106" t="n">
-        <v>81.59999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="E106" t="n">
-        <v>81.59999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="F106" t="n">
-        <v>5227.0969</v>
+        <v>22.03</v>
       </c>
       <c r="G106" t="n">
-        <v>-564326.2006169513</v>
+        <v>-456067.3557169513</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4234,7 +4348,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>82</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4250,22 +4366,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>81.91</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>81.91</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>81.91</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>81.91</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>7679.8607</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-556646.3399169514</v>
+        <v>-456057.3557169513</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4274,7 +4390,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>82</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,22 +4408,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>81.59999999999999</v>
+        <v>82.55</v>
       </c>
       <c r="C108" t="n">
-        <v>81.53</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>81.59999999999999</v>
+        <v>82.55</v>
       </c>
       <c r="E108" t="n">
-        <v>81.53</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>966.9999</v>
+        <v>2285</v>
       </c>
       <c r="G108" t="n">
-        <v>-557613.3398169514</v>
+        <v>-458342.3557169513</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4314,7 +4432,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>82</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,22 +4450,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>81.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="C109" t="n">
-        <v>81.95</v>
+        <v>82.7</v>
       </c>
       <c r="D109" t="n">
-        <v>81.95</v>
+        <v>82.7</v>
       </c>
       <c r="E109" t="n">
-        <v>81.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="F109" t="n">
-        <v>13817.7035</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>-543795.6363169515</v>
+        <v>-458332.3557169513</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4354,7 +4474,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>82</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,22 +4492,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>81.91</v>
+        <v>82.7</v>
       </c>
       <c r="C110" t="n">
-        <v>81.52</v>
+        <v>82.7</v>
       </c>
       <c r="D110" t="n">
-        <v>81.91</v>
+        <v>82.7</v>
       </c>
       <c r="E110" t="n">
-        <v>81.52</v>
+        <v>82.7</v>
       </c>
       <c r="F110" t="n">
-        <v>22862.8798</v>
+        <v>44.9511</v>
       </c>
       <c r="G110" t="n">
-        <v>-566658.5161169515</v>
+        <v>-458332.3557169513</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4394,7 +4516,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>82</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,22 +4534,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>81.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>81.52</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>81.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>81.52</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>5147.9146</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-566658.5161169515</v>
+        <v>-458342.3557169513</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4434,7 +4558,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>82</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,22 +4576,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>81.52</v>
+        <v>81.72</v>
       </c>
       <c r="C112" t="n">
-        <v>81.5</v>
+        <v>81.72</v>
       </c>
       <c r="D112" t="n">
-        <v>81.52</v>
+        <v>81.72</v>
       </c>
       <c r="E112" t="n">
-        <v>81.5</v>
+        <v>81.72</v>
       </c>
       <c r="F112" t="n">
-        <v>3504.3785</v>
+        <v>10225</v>
       </c>
       <c r="G112" t="n">
-        <v>-570162.8946169515</v>
+        <v>-468567.3557169513</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4474,7 +4600,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>82</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,22 +4618,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>81.51000000000001</v>
+        <v>82</v>
       </c>
       <c r="C113" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="D113" t="n">
-        <v>81.51000000000001</v>
+        <v>82</v>
       </c>
       <c r="E113" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="F113" t="n">
-        <v>5307.3305</v>
+        <v>4000</v>
       </c>
       <c r="G113" t="n">
-        <v>-570162.8946169515</v>
+        <v>-464567.3557169513</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4514,7 +4642,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>82</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4530,22 +4660,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>81.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="C114" t="n">
-        <v>81.34</v>
+        <v>82</v>
       </c>
       <c r="D114" t="n">
-        <v>81.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="E114" t="n">
-        <v>81.34</v>
+        <v>82</v>
       </c>
       <c r="F114" t="n">
-        <v>4542.5338</v>
+        <v>6550.1045</v>
       </c>
       <c r="G114" t="n">
-        <v>-574705.4284169514</v>
+        <v>-464567.3557169513</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4554,7 +4684,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>82</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,22 +4702,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>81.89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>81.89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>81.89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>81.89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>27963.8225</v>
       </c>
       <c r="G115" t="n">
-        <v>-574695.4284169514</v>
+        <v>-436603.5332169513</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4594,7 +4726,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>82</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,22 +4744,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>81.89</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>82.48</v>
+        <v>81.7</v>
       </c>
       <c r="D116" t="n">
-        <v>82.48</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>81.89</v>
+        <v>81.7</v>
       </c>
       <c r="F116" t="n">
-        <v>6381.5131</v>
+        <v>100000</v>
       </c>
       <c r="G116" t="n">
-        <v>-568313.9153169515</v>
+        <v>-536603.5332169513</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4634,7 +4768,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>82</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,22 +4786,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>82.01000000000001</v>
+        <v>81.89</v>
       </c>
       <c r="C117" t="n">
-        <v>81.90000000000001</v>
+        <v>81.89</v>
       </c>
       <c r="D117" t="n">
-        <v>82.01000000000001</v>
+        <v>81.89</v>
       </c>
       <c r="E117" t="n">
-        <v>81.90000000000001</v>
+        <v>81.89</v>
       </c>
       <c r="F117" t="n">
-        <v>678.2548</v>
+        <v>2500</v>
       </c>
       <c r="G117" t="n">
-        <v>-568992.1701169515</v>
+        <v>-534103.5332169513</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4674,7 +4810,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>82</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,22 +4828,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C118" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="D118" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="E118" t="n">
-        <v>81.90000000000001</v>
+        <v>82.19</v>
       </c>
       <c r="F118" t="n">
-        <v>95.2129</v>
+        <v>5360.0313</v>
       </c>
       <c r="G118" t="n">
-        <v>-568992.1701169515</v>
+        <v>-528743.5019169513</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4714,7 +4852,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>82</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4730,22 +4870,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>82.38</v>
+        <v>82.2</v>
       </c>
       <c r="C119" t="n">
-        <v>82.38</v>
+        <v>82.2</v>
       </c>
       <c r="D119" t="n">
-        <v>82.38</v>
+        <v>82.2</v>
       </c>
       <c r="E119" t="n">
-        <v>82.38</v>
+        <v>82.2</v>
       </c>
       <c r="F119" t="n">
-        <v>510.7717</v>
+        <v>1041.4206</v>
       </c>
       <c r="G119" t="n">
-        <v>-568481.3984169514</v>
+        <v>-528743.5019169513</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4754,7 +4894,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>82</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4770,22 +4912,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>81.8</v>
+        <v>81.81</v>
       </c>
       <c r="C120" t="n">
-        <v>81.8</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>81.8</v>
+        <v>81.81</v>
       </c>
       <c r="E120" t="n">
-        <v>81.8</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>937.4125</v>
+        <v>14703.3917</v>
       </c>
       <c r="G120" t="n">
-        <v>-569418.8109169514</v>
+        <v>-543446.8936169513</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4794,7 +4936,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>82</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,22 +4954,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>82.38</v>
+        <v>82</v>
       </c>
       <c r="C121" t="n">
-        <v>82.38</v>
+        <v>82</v>
       </c>
       <c r="D121" t="n">
-        <v>82.38</v>
+        <v>82</v>
       </c>
       <c r="E121" t="n">
-        <v>82.38</v>
+        <v>82</v>
       </c>
       <c r="F121" t="n">
-        <v>121.086</v>
+        <v>11533.3143</v>
       </c>
       <c r="G121" t="n">
-        <v>-569297.7249169514</v>
+        <v>-531913.5793169513</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4834,7 +4978,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>82</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,22 +4996,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>82.38</v>
+        <v>82.2</v>
       </c>
       <c r="C122" t="n">
-        <v>82.48</v>
+        <v>82.2</v>
       </c>
       <c r="D122" t="n">
-        <v>82.48</v>
+        <v>82.2</v>
       </c>
       <c r="E122" t="n">
-        <v>82.38</v>
+        <v>82.2</v>
       </c>
       <c r="F122" t="n">
-        <v>2160</v>
+        <v>7</v>
       </c>
       <c r="G122" t="n">
-        <v>-567137.7249169514</v>
+        <v>-531906.5793169513</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4874,7 +5020,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>82</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,22 +5038,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>81.81999999999999</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>82.38</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>82.38</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>81.7</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>460</v>
+        <v>1620.4253</v>
       </c>
       <c r="G123" t="n">
-        <v>-567597.7249169514</v>
+        <v>-533527.0046169513</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4914,7 +5062,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>82</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,22 +5080,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>82.38</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>82.38</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>82.38</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>82.38</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>724.6152</v>
       </c>
       <c r="G124" t="n">
-        <v>-567597.7249169514</v>
+        <v>-533527.0046169513</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4954,7 +5104,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>82</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,22 +5122,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>82.12</v>
+        <v>81.98</v>
       </c>
       <c r="C125" t="n">
-        <v>82.12</v>
+        <v>81.98</v>
       </c>
       <c r="D125" t="n">
-        <v>82.12</v>
+        <v>81.98</v>
       </c>
       <c r="E125" t="n">
-        <v>82.12</v>
+        <v>81.98</v>
       </c>
       <c r="F125" t="n">
-        <v>4235.1923</v>
+        <v>7</v>
       </c>
       <c r="G125" t="n">
-        <v>-571832.9172169514</v>
+        <v>-533520.0046169513</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4994,7 +5146,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>82</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,22 +5164,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>82.12</v>
+        <v>81.72</v>
       </c>
       <c r="C126" t="n">
-        <v>82.12</v>
+        <v>81.72</v>
       </c>
       <c r="D126" t="n">
-        <v>82.12</v>
+        <v>81.72</v>
       </c>
       <c r="E126" t="n">
-        <v>82.12</v>
+        <v>81.72</v>
       </c>
       <c r="F126" t="n">
-        <v>9299</v>
+        <v>10276.9998</v>
       </c>
       <c r="G126" t="n">
-        <v>-571832.9172169514</v>
+        <v>-543797.0044169513</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5034,7 +5188,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>82</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,22 +5206,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>82.40000000000001</v>
+        <v>81.72</v>
       </c>
       <c r="C127" t="n">
-        <v>82.40000000000001</v>
+        <v>81.72</v>
       </c>
       <c r="D127" t="n">
-        <v>82.40000000000001</v>
+        <v>81.72</v>
       </c>
       <c r="E127" t="n">
-        <v>82.40000000000001</v>
+        <v>81.72</v>
       </c>
       <c r="F127" t="n">
-        <v>63.7851</v>
+        <v>6698.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>-571769.1321169514</v>
+        <v>-543797.0044169513</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5074,7 +5230,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>82</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,22 +5248,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>82.48</v>
+        <v>81.72</v>
       </c>
       <c r="C128" t="n">
-        <v>82.48</v>
+        <v>81.72</v>
       </c>
       <c r="D128" t="n">
-        <v>82.48</v>
+        <v>81.72</v>
       </c>
       <c r="E128" t="n">
-        <v>82.48</v>
+        <v>81.72</v>
       </c>
       <c r="F128" t="n">
-        <v>857.1688</v>
+        <v>402.1024</v>
       </c>
       <c r="G128" t="n">
-        <v>-570911.9633169514</v>
+        <v>-543797.0044169513</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5114,7 +5272,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>82</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5130,22 +5290,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>82.40000000000001</v>
+        <v>81.72</v>
       </c>
       <c r="C129" t="n">
-        <v>82.17</v>
+        <v>81.7</v>
       </c>
       <c r="D129" t="n">
-        <v>82.40000000000001</v>
+        <v>81.72</v>
       </c>
       <c r="E129" t="n">
-        <v>82.17</v>
+        <v>81.7</v>
       </c>
       <c r="F129" t="n">
-        <v>10388.6522</v>
+        <v>17619.2532</v>
       </c>
       <c r="G129" t="n">
-        <v>-581300.6155169514</v>
+        <v>-561416.2576169514</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5154,7 +5314,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>82</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,22 +5332,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>82.11</v>
+        <v>81.61</v>
       </c>
       <c r="C130" t="n">
-        <v>82.09999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>82.11</v>
+        <v>81.61</v>
       </c>
       <c r="E130" t="n">
-        <v>82.09999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>371.427</v>
+        <v>1969.7</v>
       </c>
       <c r="G130" t="n">
-        <v>-581672.0425169514</v>
+        <v>-563385.9576169513</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5194,7 +5356,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>82</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5210,22 +5374,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>82.05</v>
+        <v>81.61</v>
       </c>
       <c r="C131" t="n">
-        <v>82</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>82.05</v>
+        <v>81.61</v>
       </c>
       <c r="E131" t="n">
-        <v>82</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>669.5832</v>
+        <v>16471.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>-582341.6257169514</v>
+        <v>-563385.9576169513</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5234,7 +5398,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>82</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,22 +5416,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>82</v>
+        <v>81.61</v>
       </c>
       <c r="C132" t="n">
-        <v>82</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>82</v>
+        <v>81.61</v>
       </c>
       <c r="E132" t="n">
-        <v>82</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>11838.4043</v>
+        <v>500</v>
       </c>
       <c r="G132" t="n">
-        <v>-582341.6257169514</v>
+        <v>-563385.9576169513</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5274,7 +5440,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>82</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5290,22 +5458,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F133" t="n">
-        <v>6728</v>
+        <v>321.3668</v>
       </c>
       <c r="G133" t="n">
-        <v>-575613.6257169514</v>
+        <v>-563064.5908169514</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5314,7 +5482,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>82</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5330,22 +5500,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>82.3</v>
+        <v>81.91</v>
       </c>
       <c r="C134" t="n">
-        <v>82.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>82.3</v>
+        <v>81.91</v>
       </c>
       <c r="E134" t="n">
-        <v>82.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>12223.4635</v>
+        <v>1261.6098</v>
       </c>
       <c r="G134" t="n">
-        <v>-575613.6257169514</v>
+        <v>-564326.2006169513</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5354,7 +5524,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>82</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5370,22 +5542,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>82.31999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>82.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>82.31999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>82.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>13690.1125</v>
+        <v>5227.0969</v>
       </c>
       <c r="G135" t="n">
-        <v>-575613.6257169514</v>
+        <v>-564326.2006169513</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5394,7 +5566,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>82</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,22 +5584,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>82.3</v>
+        <v>81.91</v>
       </c>
       <c r="C136" t="n">
-        <v>82.3</v>
+        <v>81.91</v>
       </c>
       <c r="D136" t="n">
-        <v>82.3</v>
+        <v>81.91</v>
       </c>
       <c r="E136" t="n">
-        <v>82.3</v>
+        <v>81.91</v>
       </c>
       <c r="F136" t="n">
-        <v>670</v>
+        <v>7679.8607</v>
       </c>
       <c r="G136" t="n">
-        <v>-575613.6257169514</v>
+        <v>-556646.3399169514</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5434,7 +5608,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>82</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,22 +5626,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>82.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>82.2</v>
+        <v>81.53</v>
       </c>
       <c r="D137" t="n">
-        <v>82.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>82.2</v>
+        <v>81.53</v>
       </c>
       <c r="F137" t="n">
-        <v>159.7715</v>
+        <v>966.9999</v>
       </c>
       <c r="G137" t="n">
-        <v>-575773.3972169515</v>
+        <v>-557613.3398169514</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5474,7 +5650,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>82</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5490,22 +5668,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>82.3</v>
+        <v>81.95</v>
       </c>
       <c r="D138" t="n">
-        <v>82.3</v>
+        <v>81.95</v>
       </c>
       <c r="E138" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>181.331</v>
+        <v>13817.7035</v>
       </c>
       <c r="G138" t="n">
-        <v>-575592.0662169515</v>
+        <v>-543795.6363169515</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5514,7 +5692,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>82</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5530,40 +5710,1262 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="C139" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="D139" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="E139" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22862.8798</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-566658.5161169515</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>82</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="D140" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5147.9146</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-566658.5161169515</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>82</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="C141" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="E141" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3504.3785</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-570162.8946169515</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>82</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="E142" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5307.3305</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-570162.8946169515</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>82</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>81.34</v>
+      </c>
+      <c r="D143" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>81.34</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4542.5338</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-574705.4284169514</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>82</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="C144" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="D144" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="E144" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-574695.4284169514</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>82</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="C145" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="D145" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="E145" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6381.5131</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-568313.9153169515</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="K145" t="n">
+        <v>82</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>678.2548</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-568992.1701169515</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>82</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D147" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F147" t="n">
+        <v>95.2129</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-568992.1701169515</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>82</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="C148" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="D148" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="E148" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="F148" t="n">
+        <v>510.7717</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-568481.3984169514</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>82</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
         <v>81.8</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C149" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>937.4125</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-569418.8109169514</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>82</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="C150" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="D150" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="E150" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="F150" t="n">
+        <v>121.086</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-569297.7249169514</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>82</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="C151" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="D151" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="E151" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2160</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-567137.7249169514</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>82</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="D152" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="E152" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>460</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-567597.7249169514</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>82</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="C153" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="D153" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="E153" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-567597.7249169514</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>82</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="C154" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="D154" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="E154" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4235.1923</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-571832.9172169514</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>82</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="C155" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="D155" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="E155" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9299</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-571832.9172169514</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>82</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>63.7851</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-571769.1321169514</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>82</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="C157" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="D157" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="E157" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="F157" t="n">
+        <v>857.1688</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-570911.9633169514</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>82</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="D158" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10388.6522</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-581300.6155169514</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>82</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>82.11</v>
+      </c>
+      <c r="C159" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>82.11</v>
+      </c>
+      <c r="E159" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>371.427</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-581672.0425169514</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>82</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>82.05</v>
+      </c>
+      <c r="C160" t="n">
+        <v>82</v>
+      </c>
+      <c r="D160" t="n">
+        <v>82.05</v>
+      </c>
+      <c r="E160" t="n">
+        <v>82</v>
+      </c>
+      <c r="F160" t="n">
+        <v>669.5832</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-582341.6257169514</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>82</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>82</v>
+      </c>
+      <c r="C161" t="n">
+        <v>82</v>
+      </c>
+      <c r="D161" t="n">
+        <v>82</v>
+      </c>
+      <c r="E161" t="n">
+        <v>82</v>
+      </c>
+      <c r="F161" t="n">
+        <v>11838.4043</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-582341.6257169514</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>82</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6728</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-575613.6257169514</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>82</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>12223.4635</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-575613.6257169514</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>82</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>82.31999999999999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>82.31999999999999</v>
+      </c>
+      <c r="E164" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13690.1125</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-575613.6257169514</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>82</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>670</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-575613.6257169514</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>82</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>159.7715</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-575773.3972169515</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>82</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>181.331</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-575592.0662169515</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>82</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="C168" t="n">
         <v>81.69</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D168" t="n">
         <v>81.8</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E168" t="n">
         <v>81.69</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F168" t="n">
         <v>58937.7573</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G168" t="n">
         <v>-634529.8235169514</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>82</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-13 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N168"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-69308.7645</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-81535.0432</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-147933.2638169512</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,21 @@
         <v>-384483.0104169512</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>81.37</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2272,21 @@
         <v>-384483.0104169512</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>81.33</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2311,21 @@
         <v>-380163.0104169512</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>81.33</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2352,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2389,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2426,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2463,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2500,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2537,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2574,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2611,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2648,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2685,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2720,21 @@
         <v>-462141.0754169513</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2759,21 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2798,21 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2837,21 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2878,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2915,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2952,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2989,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,22 +3024,19 @@
         <v>-437707.0754169513</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>82.01000000000001</v>
-      </c>
-      <c r="K77" t="n">
-        <v>82.01000000000001</v>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3196,26 +3061,19 @@
         <v>-437696.5260169512</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>82.01000000000001</v>
-      </c>
-      <c r="K78" t="n">
-        <v>82.01000000000001</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3242,22 +3100,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>82.01000000000001</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3284,16 +3137,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3318,22 +3172,19 @@
         <v>-442259.3660169513</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,26 +3209,19 @@
         <v>-442251.7196169512</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3402,26 +3246,19 @@
         <v>-443418.3987169513</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K83" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3448,16 +3285,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3482,22 +3320,19 @@
         <v>-442998.6234169513</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="K85" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3524,22 +3359,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3564,26 +3394,19 @@
         <v>-466015.0692169513</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="K87" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3610,16 +3433,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3646,16 +3470,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3682,16 +3507,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3718,16 +3544,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3754,16 +3581,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3788,22 +3616,19 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>81.66</v>
-      </c>
-      <c r="K93" t="n">
-        <v>81.66</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3828,26 +3653,21 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
         <v>81.7</v>
       </c>
-      <c r="K94" t="n">
-        <v>81.66</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3872,26 +3692,19 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="K95" t="n">
-        <v>81.66</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3916,22 +3729,19 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="K96" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3956,26 +3766,19 @@
         <v>-456799.6466169513</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="K97" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4000,26 +3803,19 @@
         <v>-456799.6466169513</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>82</v>
-      </c>
-      <c r="K98" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4044,22 +3840,21 @@
         <v>-456769.6466169513</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>82</v>
-      </c>
-      <c r="K99" t="n">
-        <v>82</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4084,26 +3879,21 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>82.55</v>
       </c>
-      <c r="K100" t="n">
-        <v>82</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4128,26 +3918,21 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>82</v>
-      </c>
-      <c r="K101" t="n">
-        <v>82</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4172,22 +3957,21 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>82</v>
-      </c>
-      <c r="K102" t="n">
-        <v>82</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4212,26 +3996,19 @@
         <v>-456095.3257169513</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>82</v>
-      </c>
-      <c r="K103" t="n">
-        <v>82</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4256,26 +4033,19 @@
         <v>-456045.3257169513</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="K104" t="n">
-        <v>82</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4302,22 +4072,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>82</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4344,22 +4109,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>82</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4386,22 +4146,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>82</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4428,22 +4183,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>82</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4470,22 +4220,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>82</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4512,22 +4257,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>82</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4554,22 +4294,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>82</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4596,22 +4331,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>82</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4638,22 +4368,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>82</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4680,22 +4405,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>82</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4722,22 +4442,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>82</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4764,22 +4479,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>82</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4806,22 +4516,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>82</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4848,22 +4553,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>82</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4890,22 +4590,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>82</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4932,22 +4627,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>82</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4974,22 +4664,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>82</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5016,22 +4701,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>82</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5058,22 +4738,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>82</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5100,22 +4775,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>82</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5142,22 +4812,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>82</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5184,22 +4849,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>82</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5226,22 +4886,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>82</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5268,22 +4923,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>82</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5310,22 +4960,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>82</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5352,22 +4997,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>82</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5394,22 +5034,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>82</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5436,22 +5071,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>82</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5478,22 +5108,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>82</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5520,22 +5145,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>82</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5562,22 +5182,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>82</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5604,22 +5219,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>82</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5646,22 +5256,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>82</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5688,22 +5293,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>82</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5730,22 +5330,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>82</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5772,22 +5367,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>82</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5814,22 +5404,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>82</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5856,22 +5441,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>82</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5898,22 +5478,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>82</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5940,22 +5515,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>82</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5980,26 +5550,19 @@
         <v>-568313.9153169515</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="K145" t="n">
-        <v>82</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6026,22 +5589,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>82</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6068,22 +5626,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>82</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6110,22 +5663,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>82</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6152,22 +5700,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>82</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6194,22 +5737,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>82</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6236,22 +5774,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>82</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6278,22 +5811,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>82</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6320,22 +5848,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>82</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6362,22 +5885,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>82</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6404,22 +5922,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>82</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6446,22 +5959,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>82</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6488,22 +5996,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>82</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6530,22 +6033,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>82</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6572,22 +6070,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>82</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6614,22 +6107,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>82</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6656,22 +6144,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>82</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6698,22 +6181,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>82</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6740,22 +6218,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>82</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6782,22 +6255,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>82</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6822,24 +6290,19 @@
         <v>-575613.6257169514</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>82</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6866,22 +6329,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>82</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6906,24 +6364,19 @@
         <v>-575592.0662169515</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>82</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6950,24 +6403,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>82</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-13 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-69308.7645</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-81535.0432</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-60182.3011</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-81380.54509999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-147933.2638169512</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-147933.2638169512</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-148821.2570169512</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-146865.6743169512</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-148825.1551169512</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-142825.1551169512</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-144539.8848169512</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-144539.8848169512</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-144539.8848169512</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-190095.5764169512</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-176751.5302169512</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-224507.1775169512</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-254094.8059169512</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-250094.8059169512</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-254280.8059169512</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-254280.8059169512</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-273747.5159169512</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-273747.5159169512</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2233,17 +2233,11 @@
         <v>-384483.0104169512</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>81.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2272,17 +2266,11 @@
         <v>-384483.0104169512</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>81.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2311,17 +2299,11 @@
         <v>-380163.0104169512</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>81.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2354,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2391,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2428,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2465,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2502,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2539,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2576,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2613,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2650,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2683,15 +2629,15 @@
         <v>-462141.0754169513</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="J68" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2720,15 +2666,17 @@
         <v>-462141.0754169513</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>81.5</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>81.48</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2759,15 +2707,17 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>81.5</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>81.48</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2798,17 +2748,15 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>82</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="n">
+        <v>82</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2837,15 +2785,17 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>82</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>82</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2876,13 +2826,17 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>82</v>
+      </c>
+      <c r="J73" t="n">
+        <v>82</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2913,15 +2867,15 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>82</v>
+      </c>
+      <c r="J74" t="n">
+        <v>82</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2950,13 +2904,17 @@
         <v>-437707.0754169513</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>82</v>
+      </c>
+      <c r="J75" t="n">
+        <v>82</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2987,13 +2945,17 @@
         <v>-437707.0754169513</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="J76" t="n">
+        <v>82</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3028,11 +2990,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3065,11 +3023,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3102,11 +3056,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3139,11 +3089,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3176,11 +3122,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3209,15 +3151,15 @@
         <v>-442251.7196169512</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3249,10 +3191,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>81.5</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3283,13 +3227,17 @@
         <v>-442998.6234169513</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="J84" t="n">
+        <v>81.5</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3324,11 +3272,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3361,11 +3305,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3398,11 +3338,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3435,11 +3371,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3472,11 +3404,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3437,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3546,11 +3470,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3579,13 +3499,15 @@
         <v>-485224.0348169513</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>82.40000000000001</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3616,9 +3538,11 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>81.66</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3653,11 +3577,9 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>81.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3692,9 +3614,11 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>81.7</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3729,9 +3653,11 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>81.7</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3766,9 +3692,11 @@
         <v>-456799.6466169513</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>81.7</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3803,9 +3731,11 @@
         <v>-456799.6466169513</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>82</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3840,11 +3770,9 @@
         <v>-456769.6466169513</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3879,7 +3807,7 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>82.55</v>
@@ -3918,11 +3846,9 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -3957,7 +3883,7 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>82</v>
@@ -5550,9 +5476,11 @@
         <v>-568313.9153169515</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>81.89</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -6290,7 +6218,7 @@
         <v>-575613.6257169514</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6364,7 +6292,7 @@
         <v>-575592.0662169515</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6416,6 +6344,6 @@
       <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-13 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-69308.7645</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-81535.0432</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-60182.3011</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-81380.54509999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-140403.7594169512</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-145203.7394169512</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-147933.2638169512</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-148821.2570169512</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-146865.6743169512</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-148825.1551169512</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-142825.1551169512</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-144539.8848169512</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-144539.8848169512</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-144539.8848169512</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-190095.5764169512</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-176751.5302169512</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-224507.1775169512</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-254094.8059169512</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-250094.8059169512</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-254280.8059169512</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-254280.8059169512</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-273747.5159169512</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-273747.5159169512</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2629,14 +2629,10 @@
         <v>-462141.0754169513</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="J68" t="n">
-        <v>81.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2666,19 +2662,11 @@
         <v>-462141.0754169513</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2707,19 +2695,11 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,14 +2728,10 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>82</v>
-      </c>
-      <c r="J71" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2785,19 +2761,11 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>82</v>
-      </c>
-      <c r="J72" t="n">
-        <v>82</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2826,19 +2794,11 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>82</v>
-      </c>
-      <c r="J73" t="n">
-        <v>82</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2867,14 +2827,10 @@
         <v>-439357.0754169513</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>82</v>
-      </c>
-      <c r="J74" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2904,19 +2860,11 @@
         <v>-437707.0754169513</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>82</v>
-      </c>
-      <c r="J75" t="n">
-        <v>82</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2945,19 +2893,11 @@
         <v>-437707.0754169513</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>82.01000000000001</v>
-      </c>
-      <c r="J76" t="n">
-        <v>82</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3151,14 +3091,10 @@
         <v>-442251.7196169512</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>81.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3191,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3227,19 +3157,11 @@
         <v>-442998.6234169513</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="J84" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3499,1918 +3421,1700 @@
         <v>-485224.0348169513</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>82.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-482224.0348169513</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="C94" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F94" t="n">
+        <v>30336.25</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-482224.0348169513</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="C95" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="E95" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F95" t="n">
+        <v>499.2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-482224.0348169513</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="C96" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D96" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-482224.0348169513</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="C97" t="n">
+        <v>82</v>
+      </c>
+      <c r="D97" t="n">
+        <v>82</v>
+      </c>
+      <c r="E97" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="F97" t="n">
+        <v>25424.3882</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-456799.6466169513</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>82</v>
+      </c>
+      <c r="C98" t="n">
+        <v>82</v>
+      </c>
+      <c r="D98" t="n">
+        <v>82</v>
+      </c>
+      <c r="E98" t="n">
+        <v>82</v>
+      </c>
+      <c r="F98" t="n">
+        <v>23070</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-456799.6466169513</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="C99" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="D99" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="E99" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="F99" t="n">
+        <v>30</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-456769.6466169513</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>82</v>
+      </c>
+      <c r="C100" t="n">
+        <v>82</v>
+      </c>
+      <c r="D100" t="n">
+        <v>82</v>
+      </c>
+      <c r="E100" t="n">
+        <v>82</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1505.6118</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-458275.2584169513</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>82</v>
+      </c>
+      <c r="C101" t="n">
+        <v>82</v>
+      </c>
+      <c r="D101" t="n">
+        <v>82</v>
+      </c>
+      <c r="E101" t="n">
+        <v>82</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-458275.2584169513</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>82</v>
+      </c>
+      <c r="C102" t="n">
+        <v>82</v>
+      </c>
+      <c r="D102" t="n">
+        <v>82</v>
+      </c>
+      <c r="E102" t="n">
+        <v>82</v>
+      </c>
+      <c r="F102" t="n">
+        <v>16944</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-458275.2584169513</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="D103" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="E103" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2179.9327</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-456095.3257169513</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="E104" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>50</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-456045.3257169513</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="C105" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="D105" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="E105" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>132.818159864767</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-456045.3257169513</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="C106" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="D106" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="E106" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="F106" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-456067.3557169513</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-456057.3557169513</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="C108" t="n">
+        <v>81.73999999999999</v>
+      </c>
+      <c r="D108" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="E108" t="n">
+        <v>81.73999999999999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2285</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-458342.3557169513</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-458332.3557169513</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="C110" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>44.9511</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-458332.3557169513</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D111" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-458342.3557169513</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="C112" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="D112" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="E112" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10225</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-468567.3557169513</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>82</v>
+      </c>
+      <c r="C113" t="n">
+        <v>82</v>
+      </c>
+      <c r="D113" t="n">
+        <v>82</v>
+      </c>
+      <c r="E113" t="n">
+        <v>82</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-464567.3557169513</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>82</v>
+      </c>
+      <c r="C114" t="n">
+        <v>82</v>
+      </c>
+      <c r="D114" t="n">
+        <v>82</v>
+      </c>
+      <c r="E114" t="n">
+        <v>82</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6550.1045</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-464567.3557169513</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D115" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F115" t="n">
+        <v>27963.8225</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-436603.5332169513</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="C116" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-536603.5332169513</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="C117" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="D117" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="E117" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-534103.5332169513</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>82.19</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5360.0313</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-528743.5019169513</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1041.4206</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-528743.5019169513</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="C120" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="D120" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="E120" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14703.3917</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-543446.8936169513</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>82</v>
+      </c>
+      <c r="C121" t="n">
+        <v>82</v>
+      </c>
+      <c r="D121" t="n">
+        <v>82</v>
+      </c>
+      <c r="E121" t="n">
+        <v>82</v>
+      </c>
+      <c r="F121" t="n">
+        <v>11533.3143</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-531913.5793169513</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-531906.5793169513</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1620.4253</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-533527.0046169513</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="C124" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="D124" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="E124" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>724.6152</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-533527.0046169513</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C125" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D125" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E125" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-533520.0046169513</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="C126" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="D126" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="E126" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10276.9998</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-543797.0044169513</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="C127" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="D127" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="E127" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6698.9999</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-543797.0044169513</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="C128" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="D128" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="E128" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="F128" t="n">
+        <v>402.1024</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-543797.0044169513</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="C129" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="E129" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17619.2532</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-561416.2576169514</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="C130" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D130" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="E130" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1969.7</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-563385.9576169513</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="C131" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="E131" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16471.9999</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-563385.9576169513</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="C132" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="E132" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>500</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-563385.9576169513</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>321.3668</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-563064.5908169514</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="C134" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="E134" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1261.6098</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-564326.2006169513</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5227.0969</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-564326.2006169513</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="C136" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="D136" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="E136" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7679.8607</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-556646.3399169514</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="D137" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="F137" t="n">
+        <v>966.9999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-557613.3398169514</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C138" t="n">
+        <v>81.95</v>
+      </c>
+      <c r="D138" t="n">
+        <v>81.95</v>
+      </c>
+      <c r="E138" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F138" t="n">
+        <v>13817.7035</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-543795.6363169515</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="C139" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="D139" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="E139" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22862.8798</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-566658.5161169515</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="D140" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5147.9146</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-566658.5161169515</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="C141" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="E141" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3504.3785</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-570162.8946169515</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="E142" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5307.3305</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-570162.8946169515</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>81.34</v>
+      </c>
+      <c r="D143" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>81.34</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4542.5338</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-574705.4284169514</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="D93" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="E93" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="F93" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-482224.0348169513</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81.66</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="C94" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="D94" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="E94" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="F94" t="n">
-        <v>30336.25</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-482224.0348169513</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="C95" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="D95" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="E95" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="F95" t="n">
-        <v>499.2</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-482224.0348169513</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="D96" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="E96" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-482224.0348169513</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="C97" t="n">
-        <v>82</v>
-      </c>
-      <c r="D97" t="n">
-        <v>82</v>
-      </c>
-      <c r="E97" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="F97" t="n">
-        <v>25424.3882</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-456799.6466169513</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>82</v>
-      </c>
-      <c r="C98" t="n">
-        <v>82</v>
-      </c>
-      <c r="D98" t="n">
-        <v>82</v>
-      </c>
-      <c r="E98" t="n">
-        <v>82</v>
-      </c>
-      <c r="F98" t="n">
-        <v>23070</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-456799.6466169513</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>82</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="C99" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="D99" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="E99" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="F99" t="n">
-        <v>30</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-456769.6466169513</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>82</v>
-      </c>
-      <c r="C100" t="n">
-        <v>82</v>
-      </c>
-      <c r="D100" t="n">
-        <v>82</v>
-      </c>
-      <c r="E100" t="n">
-        <v>82</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1505.6118</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-458275.2584169513</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>82</v>
-      </c>
-      <c r="C101" t="n">
-        <v>82</v>
-      </c>
-      <c r="D101" t="n">
-        <v>82</v>
-      </c>
-      <c r="E101" t="n">
-        <v>82</v>
-      </c>
-      <c r="F101" t="n">
-        <v>100</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-458275.2584169513</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>82</v>
-      </c>
-      <c r="C102" t="n">
-        <v>82</v>
-      </c>
-      <c r="D102" t="n">
-        <v>82</v>
-      </c>
-      <c r="E102" t="n">
-        <v>82</v>
-      </c>
-      <c r="F102" t="n">
-        <v>16944</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-458275.2584169513</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>82</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="C103" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="D103" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="E103" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2179.9327</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-456095.3257169513</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="C104" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="D104" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="E104" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>50</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-456045.3257169513</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="C105" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="D105" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="E105" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="F105" t="n">
-        <v>132.818159864767</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-456045.3257169513</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="C106" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="D106" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="E106" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="F106" t="n">
-        <v>22.03</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-456067.3557169513</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="C107" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="D107" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="E107" t="n">
-        <v>82.81999999999999</v>
-      </c>
-      <c r="F107" t="n">
-        <v>10</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-456057.3557169513</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="C108" t="n">
-        <v>81.73999999999999</v>
-      </c>
-      <c r="D108" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="E108" t="n">
-        <v>81.73999999999999</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2285</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-458342.3557169513</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="C109" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="D109" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="E109" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="F109" t="n">
-        <v>10</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-458332.3557169513</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="C110" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="D110" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="E110" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="F110" t="n">
-        <v>44.9511</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-458332.3557169513</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="C111" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="D111" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="E111" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="F111" t="n">
-        <v>10</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-458342.3557169513</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="C112" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="D112" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="E112" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="F112" t="n">
-        <v>10225</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-468567.3557169513</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>82</v>
-      </c>
-      <c r="C113" t="n">
-        <v>82</v>
-      </c>
-      <c r="D113" t="n">
-        <v>82</v>
-      </c>
-      <c r="E113" t="n">
-        <v>82</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-464567.3557169513</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>82</v>
-      </c>
-      <c r="C114" t="n">
-        <v>82</v>
-      </c>
-      <c r="D114" t="n">
-        <v>82</v>
-      </c>
-      <c r="E114" t="n">
-        <v>82</v>
-      </c>
-      <c r="F114" t="n">
-        <v>6550.1045</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-464567.3557169513</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="C115" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="D115" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="E115" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="F115" t="n">
-        <v>27963.8225</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-436603.5332169513</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>82.01000000000001</v>
-      </c>
-      <c r="C116" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="D116" t="n">
-        <v>82.01000000000001</v>
-      </c>
-      <c r="E116" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-536603.5332169513</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="C117" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="D117" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="E117" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-534103.5332169513</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>82.19</v>
-      </c>
-      <c r="F118" t="n">
-        <v>5360.0313</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-528743.5019169513</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1041.4206</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-528743.5019169513</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>81.81</v>
-      </c>
-      <c r="C120" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="D120" t="n">
-        <v>81.81</v>
-      </c>
-      <c r="E120" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="F120" t="n">
-        <v>14703.3917</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-543446.8936169513</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>82</v>
-      </c>
-      <c r="C121" t="n">
-        <v>82</v>
-      </c>
-      <c r="D121" t="n">
-        <v>82</v>
-      </c>
-      <c r="E121" t="n">
-        <v>82</v>
-      </c>
-      <c r="F121" t="n">
-        <v>11533.3143</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-531913.5793169513</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="F122" t="n">
-        <v>7</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-531906.5793169513</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="C123" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="D123" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="E123" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1620.4253</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-533527.0046169513</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="C124" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="D124" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="E124" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="F124" t="n">
-        <v>724.6152</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-533527.0046169513</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C125" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D125" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E125" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F125" t="n">
-        <v>7</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-533520.0046169513</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="C126" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="D126" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="E126" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="F126" t="n">
-        <v>10276.9998</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-543797.0044169513</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="C127" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="D127" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="E127" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="F127" t="n">
-        <v>6698.9999</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-543797.0044169513</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="C128" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="D128" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="E128" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="F128" t="n">
-        <v>402.1024</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-543797.0044169513</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="C129" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="E129" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>17619.2532</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-561416.2576169514</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="C130" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="D130" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="E130" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1969.7</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-563385.9576169513</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="C131" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="D131" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="E131" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>16471.9999</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-563385.9576169513</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="C132" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="D132" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="E132" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>500</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-563385.9576169513</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C133" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="D133" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F133" t="n">
-        <v>321.3668</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-563064.5908169514</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="C134" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="D134" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="E134" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1261.6098</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-564326.2006169513</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="C135" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="D135" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="E135" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F135" t="n">
-        <v>5227.0969</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-564326.2006169513</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="C136" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="D136" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="E136" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="F136" t="n">
-        <v>7679.8607</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-556646.3399169514</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="C137" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="D137" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="E137" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="F137" t="n">
-        <v>966.9999</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-557613.3398169514</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C138" t="n">
-        <v>81.95</v>
-      </c>
-      <c r="D138" t="n">
-        <v>81.95</v>
-      </c>
-      <c r="E138" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F138" t="n">
-        <v>13817.7035</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-543795.6363169515</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="C139" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="D139" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="E139" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="F139" t="n">
-        <v>22862.8798</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-566658.5161169515</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="D140" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="E140" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="F140" t="n">
-        <v>5147.9146</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-566658.5161169515</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="C141" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="E141" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3504.3785</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-570162.8946169515</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="C142" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="E142" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5307.3305</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-570162.8946169515</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C143" t="n">
-        <v>81.34</v>
-      </c>
-      <c r="D143" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E143" t="n">
-        <v>81.34</v>
-      </c>
-      <c r="F143" t="n">
-        <v>4542.5338</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-574705.4284169514</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5439,9 +5143,11 @@
         <v>-574695.4284169514</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>81.34</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5589,9 +5295,11 @@
         <v>-568481.3984169514</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6292,9 +6000,11 @@
         <v>-575592.0662169515</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>82.2</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6329,9 +6039,11 @@
         <v>-634529.8235169514</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>82.3</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6344,6 +6056,6 @@
       <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-13 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>-69308.7645</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-81535.0432</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-60182.3011</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-81380.54509999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-140403.7594169512</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-147933.2638169512</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-482224.0348169513</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-456769.6466169513</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-458275.2584169513</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-456067.3557169513</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-456057.3557169513</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-458342.3557169513</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-458332.3557169513</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-458332.3557169513</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-458342.3557169513</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-468567.3557169513</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-464567.3557169513</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-464567.3557169513</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4939,10 +4939,14 @@
         <v>-543795.6363169515</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="J138" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4975,8 +4979,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5018,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5057,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5096,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5109,10 +5137,12 @@
       <c r="I143" t="n">
         <v>81.5</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -5148,7 +5178,9 @@
       <c r="I144" t="n">
         <v>81.34</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5187,7 +5219,9 @@
       <c r="I145" t="n">
         <v>81.89</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5221,10 +5255,14 @@
         <v>-568992.1701169515</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="J146" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5258,10 +5296,14 @@
         <v>-568992.1701169515</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J147" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5300,7 +5342,9 @@
       <c r="I148" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,10 +5378,14 @@
         <v>-569418.8109169514</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="J149" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,10 +5419,14 @@
         <v>-569297.7249169514</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J150" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,7 +5463,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5448,7 +5502,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5485,7 +5541,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5522,7 +5580,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5559,7 +5619,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5596,7 +5658,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5633,7 +5697,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5670,7 +5736,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5707,7 +5775,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5744,7 +5814,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5781,7 +5853,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,10 +5889,14 @@
         <v>-575613.6257169514</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>82</v>
+      </c>
+      <c r="J162" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,7 +5933,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,7 +5972,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,7 +6011,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5963,10 +6047,14 @@
         <v>-575773.3972169515</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,7 +6093,9 @@
       <c r="I167" t="n">
         <v>82.2</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,12 +6129,12 @@
         <v>-634529.8235169514</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>81.53</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-13 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-13 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>-69308.7645</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>12226.2787</v>
       </c>
       <c r="G3" t="n">
-        <v>-81535.0432</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>21352.7421</v>
       </c>
       <c r="G4" t="n">
-        <v>-60182.3011</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>21198.244</v>
       </c>
       <c r="G5" t="n">
-        <v>-81380.54509999999</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>24273.1791</v>
       </c>
       <c r="G6" t="n">
-        <v>-57107.36599999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>83296.39341695121</v>
       </c>
       <c r="G7" t="n">
-        <v>-140403.7594169512</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>4799.98</v>
       </c>
       <c r="G8" t="n">
-        <v>-145203.7394169512</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2729.5244</v>
       </c>
       <c r="G9" t="n">
-        <v>-147933.2638169512</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>18213.5716</v>
       </c>
       <c r="G10" t="n">
-        <v>-147933.2638169512</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>887.9932</v>
       </c>
       <c r="G11" t="n">
-        <v>-148821.2570169512</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1955.5827</v>
       </c>
       <c r="G12" t="n">
-        <v>-146865.6743169512</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1959.4808</v>
       </c>
       <c r="G13" t="n">
-        <v>-148825.1551169512</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>6000</v>
       </c>
       <c r="G14" t="n">
-        <v>-142825.1551169512</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1714.7297</v>
       </c>
       <c r="G15" t="n">
-        <v>-144539.8848169512</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>12650.7448</v>
       </c>
       <c r="G16" t="n">
-        <v>-144539.8848169512</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>580.0865</v>
       </c>
       <c r="G17" t="n">
-        <v>-144539.8848169512</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>45555.6916</v>
       </c>
       <c r="G18" t="n">
-        <v>-190095.5764169512</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>13344.0462</v>
       </c>
       <c r="G19" t="n">
-        <v>-176751.5302169512</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>4899.8442</v>
       </c>
       <c r="G20" t="n">
-        <v>-176751.5302169512</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>47755.6473</v>
       </c>
       <c r="G21" t="n">
-        <v>-224507.1775169512</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>13322.6357</v>
       </c>
       <c r="G22" t="n">
-        <v>-211184.5418169512</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>43974.3287</v>
       </c>
       <c r="G23" t="n">
-        <v>-255158.8705169511</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>32.6877</v>
       </c>
       <c r="G24" t="n">
-        <v>-255126.1828169511</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>299.4733</v>
       </c>
       <c r="G25" t="n">
-        <v>-255425.6561169511</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1330.8502</v>
       </c>
       <c r="G26" t="n">
-        <v>-254094.8059169512</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4000</v>
       </c>
       <c r="G27" t="n">
-        <v>-250094.8059169512</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>4186</v>
       </c>
       <c r="G28" t="n">
-        <v>-254280.8059169512</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2500</v>
       </c>
       <c r="G29" t="n">
-        <v>-254280.8059169512</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>19466.71</v>
       </c>
       <c r="G30" t="n">
-        <v>-273747.5159169512</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1570</v>
       </c>
       <c r="G31" t="n">
-        <v>-273747.5159169512</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>4469</v>
       </c>
       <c r="G32" t="n">
-        <v>-278216.5159169512</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2720.8</v>
       </c>
       <c r="G33" t="n">
-        <v>-278216.5159169512</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>5471</v>
       </c>
       <c r="G34" t="n">
-        <v>-278216.5159169512</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>491</v>
       </c>
       <c r="G35" t="n">
-        <v>-278216.5159169512</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2091</v>
       </c>
       <c r="G36" t="n">
-        <v>-278216.5159169512</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>109359.8696</v>
       </c>
       <c r="G37" t="n">
-        <v>-278216.5159169512</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>26120.92</v>
       </c>
       <c r="G38" t="n">
-        <v>-278216.5159169512</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>31869.64</v>
       </c>
       <c r="G39" t="n">
-        <v>-310086.1559169512</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3770</v>
       </c>
       <c r="G40" t="n">
-        <v>-313856.1559169512</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>9065</v>
       </c>
       <c r="G41" t="n">
-        <v>-313856.1559169512</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>5862</v>
       </c>
       <c r="G42" t="n">
-        <v>-319718.1559169512</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>221</v>
       </c>
       <c r="G43" t="n">
-        <v>-319718.1559169512</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>996</v>
       </c>
       <c r="G44" t="n">
-        <v>-320714.1559169512</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>15039.1952</v>
       </c>
       <c r="G45" t="n">
-        <v>-335753.3511169512</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>11500</v>
       </c>
       <c r="G46" t="n">
-        <v>-347253.3511169512</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2705.94</v>
       </c>
       <c r="G47" t="n">
-        <v>-349959.2911169512</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1159.7164</v>
       </c>
       <c r="G48" t="n">
-        <v>-349959.2911169512</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>80</v>
       </c>
       <c r="G49" t="n">
-        <v>-349959.2911169512</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>5444</v>
       </c>
       <c r="G50" t="n">
-        <v>-355403.2911169512</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,19 @@
         <v>614.6685</v>
       </c>
       <c r="G51" t="n">
-        <v>-354788.6226169512</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="I51" t="n">
+        <v>81.44</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1947,21 @@
         <v>5000</v>
       </c>
       <c r="G52" t="n">
-        <v>-359788.6226169512</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1983,21 @@
         <v>2500</v>
       </c>
       <c r="G53" t="n">
-        <v>-359788.6226169512</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2019,21 @@
         <v>21384.3878</v>
       </c>
       <c r="G54" t="n">
-        <v>-381173.0104169512</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2055,21 @@
         <v>9355.669599999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-381173.0104169512</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2091,23 @@
         <v>3310</v>
       </c>
       <c r="G56" t="n">
-        <v>-384483.0104169512</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>81.37</v>
+      </c>
+      <c r="I56" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2129,21 @@
         <v>1500</v>
       </c>
       <c r="G57" t="n">
-        <v>-384483.0104169512</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2165,23 @@
         <v>4320</v>
       </c>
       <c r="G58" t="n">
-        <v>-380163.0104169512</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>81.33</v>
+      </c>
+      <c r="I58" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2203,21 @@
         <v>5900</v>
       </c>
       <c r="G59" t="n">
-        <v>-386063.0104169512</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2239,23 @@
         <v>5056.095</v>
       </c>
       <c r="G60" t="n">
-        <v>-381006.9154169512</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>81.48</v>
+      </c>
+      <c r="I60" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2277,23 @@
         <v>4487.0167</v>
       </c>
       <c r="G61" t="n">
-        <v>-381006.9154169512</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I61" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2315,21 @@
         <v>17562.02</v>
       </c>
       <c r="G62" t="n">
-        <v>-398568.9354169513</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2351,21 @@
         <v>262</v>
       </c>
       <c r="G63" t="n">
-        <v>-398306.9354169513</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2387,21 @@
         <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>-397306.9354169513</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2423,21 @@
         <v>50122.82</v>
       </c>
       <c r="G65" t="n">
-        <v>-447429.7554169513</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2459,21 @@
         <v>16711.32</v>
       </c>
       <c r="G66" t="n">
-        <v>-464141.0754169513</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2495,21 @@
         <v>15070</v>
       </c>
       <c r="G67" t="n">
-        <v>-464141.0754169513</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2531,21 @@
         <v>2000</v>
       </c>
       <c r="G68" t="n">
-        <v>-462141.0754169513</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2567,21 @@
         <v>9500</v>
       </c>
       <c r="G69" t="n">
-        <v>-462141.0754169513</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2603,21 @@
         <v>22784</v>
       </c>
       <c r="G70" t="n">
-        <v>-439357.0754169513</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2639,21 @@
         <v>48653.96</v>
       </c>
       <c r="G71" t="n">
-        <v>-439357.0754169513</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2675,21 @@
         <v>12843.79</v>
       </c>
       <c r="G72" t="n">
-        <v>-439357.0754169513</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2711,21 @@
         <v>1509.74</v>
       </c>
       <c r="G73" t="n">
-        <v>-439357.0754169513</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2747,21 @@
         <v>5097.35</v>
       </c>
       <c r="G74" t="n">
-        <v>-439357.0754169513</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2783,21 @@
         <v>1650</v>
       </c>
       <c r="G75" t="n">
-        <v>-437707.0754169513</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2819,21 @@
         <v>6951.07</v>
       </c>
       <c r="G76" t="n">
-        <v>-437707.0754169513</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2855,21 @@
         <v>1337.92</v>
       </c>
       <c r="G77" t="n">
-        <v>-437707.0754169513</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2891,21 @@
         <v>10.5494</v>
       </c>
       <c r="G78" t="n">
-        <v>-437696.5260169512</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2927,21 @@
         <v>176</v>
       </c>
       <c r="G79" t="n">
-        <v>-437872.5260169512</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2963,21 @@
         <v>4386.84</v>
       </c>
       <c r="G80" t="n">
-        <v>-442259.3660169513</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2999,21 @@
         <v>25600</v>
       </c>
       <c r="G81" t="n">
-        <v>-442259.3660169513</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3035,21 @@
         <v>7.6464</v>
       </c>
       <c r="G82" t="n">
-        <v>-442251.7196169512</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3071,21 @@
         <v>1166.6791</v>
       </c>
       <c r="G83" t="n">
-        <v>-443418.3987169513</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3107,21 @@
         <v>419.7753</v>
       </c>
       <c r="G84" t="n">
-        <v>-442998.6234169513</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3143,21 @@
         <v>109.7721</v>
       </c>
       <c r="G85" t="n">
-        <v>-442998.6234169513</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3179,21 @@
         <v>12284.9807</v>
       </c>
       <c r="G86" t="n">
-        <v>-430713.6427169513</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3215,21 @@
         <v>35301.4265</v>
       </c>
       <c r="G87" t="n">
-        <v>-466015.0692169513</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3251,21 @@
         <v>3784.4414</v>
       </c>
       <c r="G88" t="n">
-        <v>-462230.6278169513</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3287,21 @@
         <v>604.183</v>
       </c>
       <c r="G89" t="n">
-        <v>-461626.4448169512</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3323,21 @@
         <v>1500</v>
       </c>
       <c r="G90" t="n">
-        <v>-463126.4448169512</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3359,21 @@
         <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>-463106.4448169512</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3395,21 @@
         <v>22117.59</v>
       </c>
       <c r="G92" t="n">
-        <v>-485224.0348169513</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3431,21 @@
         <v>3000</v>
       </c>
       <c r="G93" t="n">
-        <v>-482224.0348169513</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3467,21 @@
         <v>30336.25</v>
       </c>
       <c r="G94" t="n">
-        <v>-482224.0348169513</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3503,21 @@
         <v>499.2</v>
       </c>
       <c r="G95" t="n">
-        <v>-482224.0348169513</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3539,21 @@
         <v>4000</v>
       </c>
       <c r="G96" t="n">
-        <v>-482224.0348169513</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3575,21 @@
         <v>25424.3882</v>
       </c>
       <c r="G97" t="n">
-        <v>-456799.6466169513</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3611,21 @@
         <v>23070</v>
       </c>
       <c r="G98" t="n">
-        <v>-456799.6466169513</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3647,21 @@
         <v>30</v>
       </c>
       <c r="G99" t="n">
-        <v>-456769.6466169513</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3683,21 @@
         <v>1505.6118</v>
       </c>
       <c r="G100" t="n">
-        <v>-458275.2584169513</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3719,21 @@
         <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>-458275.2584169513</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3755,21 @@
         <v>16944</v>
       </c>
       <c r="G102" t="n">
-        <v>-458275.2584169513</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3791,21 @@
         <v>2179.9327</v>
       </c>
       <c r="G103" t="n">
-        <v>-456095.3257169513</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3827,21 @@
         <v>50</v>
       </c>
       <c r="G104" t="n">
-        <v>-456045.3257169513</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3863,21 @@
         <v>132.818159864767</v>
       </c>
       <c r="G105" t="n">
-        <v>-456045.3257169513</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3899,21 @@
         <v>22.03</v>
       </c>
       <c r="G106" t="n">
-        <v>-456067.3557169513</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3935,21 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-456057.3557169513</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3971,21 @@
         <v>2285</v>
       </c>
       <c r="G108" t="n">
-        <v>-458342.3557169513</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4007,21 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>-458332.3557169513</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4043,21 @@
         <v>44.9511</v>
       </c>
       <c r="G110" t="n">
-        <v>-458332.3557169513</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4079,21 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-458342.3557169513</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4115,21 @@
         <v>10225</v>
       </c>
       <c r="G112" t="n">
-        <v>-468567.3557169513</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4151,21 @@
         <v>4000</v>
       </c>
       <c r="G113" t="n">
-        <v>-464567.3557169513</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4187,21 @@
         <v>6550.1045</v>
       </c>
       <c r="G114" t="n">
-        <v>-464567.3557169513</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4223,21 @@
         <v>27963.8225</v>
       </c>
       <c r="G115" t="n">
-        <v>-436603.5332169513</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4259,21 @@
         <v>100000</v>
       </c>
       <c r="G116" t="n">
-        <v>-536603.5332169513</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4295,21 @@
         <v>2500</v>
       </c>
       <c r="G117" t="n">
-        <v>-534103.5332169513</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4331,21 @@
         <v>5360.0313</v>
       </c>
       <c r="G118" t="n">
-        <v>-528743.5019169513</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4367,21 @@
         <v>1041.4206</v>
       </c>
       <c r="G119" t="n">
-        <v>-528743.5019169513</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4403,21 @@
         <v>14703.3917</v>
       </c>
       <c r="G120" t="n">
-        <v>-543446.8936169513</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4439,21 @@
         <v>11533.3143</v>
       </c>
       <c r="G121" t="n">
-        <v>-531913.5793169513</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4475,21 @@
         <v>7</v>
       </c>
       <c r="G122" t="n">
-        <v>-531906.5793169513</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4511,21 @@
         <v>1620.4253</v>
       </c>
       <c r="G123" t="n">
-        <v>-533527.0046169513</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4547,21 @@
         <v>724.6152</v>
       </c>
       <c r="G124" t="n">
-        <v>-533527.0046169513</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4583,21 @@
         <v>7</v>
       </c>
       <c r="G125" t="n">
-        <v>-533520.0046169513</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4619,21 @@
         <v>10276.9998</v>
       </c>
       <c r="G126" t="n">
-        <v>-543797.0044169513</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4655,21 @@
         <v>6698.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>-543797.0044169513</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4691,21 @@
         <v>402.1024</v>
       </c>
       <c r="G128" t="n">
-        <v>-543797.0044169513</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4727,21 @@
         <v>17619.2532</v>
       </c>
       <c r="G129" t="n">
-        <v>-561416.2576169514</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4763,21 @@
         <v>1969.7</v>
       </c>
       <c r="G130" t="n">
-        <v>-563385.9576169513</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4799,21 @@
         <v>16471.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>-563385.9576169513</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4835,21 @@
         <v>500</v>
       </c>
       <c r="G132" t="n">
-        <v>-563385.9576169513</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4871,21 @@
         <v>321.3668</v>
       </c>
       <c r="G133" t="n">
-        <v>-563064.5908169514</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4907,21 @@
         <v>1261.6098</v>
       </c>
       <c r="G134" t="n">
-        <v>-564326.2006169513</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4943,21 @@
         <v>5227.0969</v>
       </c>
       <c r="G135" t="n">
-        <v>-564326.2006169513</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4979,21 @@
         <v>7679.8607</v>
       </c>
       <c r="G136" t="n">
-        <v>-556646.3399169514</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5015,21 @@
         <v>966.9999</v>
       </c>
       <c r="G137" t="n">
-        <v>-557613.3398169514</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,22 +5051,21 @@
         <v>13817.7035</v>
       </c>
       <c r="G138" t="n">
-        <v>-543795.6363169515</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="J138" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4973,24 +5087,21 @@
         <v>22862.8798</v>
       </c>
       <c r="G139" t="n">
-        <v>-566658.5161169515</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5012,24 +5123,21 @@
         <v>5147.9146</v>
       </c>
       <c r="G140" t="n">
-        <v>-566658.5161169515</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5051,24 +5159,21 @@
         <v>3504.3785</v>
       </c>
       <c r="G141" t="n">
-        <v>-570162.8946169515</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5090,24 +5195,21 @@
         <v>5307.3305</v>
       </c>
       <c r="G142" t="n">
-        <v>-570162.8946169515</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5129,26 +5231,21 @@
         <v>4542.5338</v>
       </c>
       <c r="G143" t="n">
-        <v>-574705.4284169514</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="J143" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5170,26 +5267,21 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>-574695.4284169514</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>81.34</v>
-      </c>
-      <c r="J144" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5211,26 +5303,21 @@
         <v>6381.5131</v>
       </c>
       <c r="G145" t="n">
-        <v>-568313.9153169515</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="J145" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5252,26 +5339,21 @@
         <v>678.2548</v>
       </c>
       <c r="G146" t="n">
-        <v>-568992.1701169515</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>82.48</v>
-      </c>
-      <c r="J146" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5293,26 +5375,21 @@
         <v>95.2129</v>
       </c>
       <c r="G147" t="n">
-        <v>-568992.1701169515</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="J147" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5334,26 +5411,21 @@
         <v>510.7717</v>
       </c>
       <c r="G148" t="n">
-        <v>-568481.3984169514</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="J148" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5375,26 +5447,21 @@
         <v>937.4125</v>
       </c>
       <c r="G149" t="n">
-        <v>-569418.8109169514</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>82.38</v>
-      </c>
-      <c r="J149" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5416,26 +5483,21 @@
         <v>121.086</v>
       </c>
       <c r="G150" t="n">
-        <v>-569297.7249169514</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="J150" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5457,24 +5519,21 @@
         <v>2160</v>
       </c>
       <c r="G151" t="n">
-        <v>-567137.7249169514</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5496,24 +5555,21 @@
         <v>460</v>
       </c>
       <c r="G152" t="n">
-        <v>-567597.7249169514</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5535,24 +5591,21 @@
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>-567597.7249169514</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5574,24 +5627,21 @@
         <v>4235.1923</v>
       </c>
       <c r="G154" t="n">
-        <v>-571832.9172169514</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5613,24 +5663,21 @@
         <v>9299</v>
       </c>
       <c r="G155" t="n">
-        <v>-571832.9172169514</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5652,24 +5699,21 @@
         <v>63.7851</v>
       </c>
       <c r="G156" t="n">
-        <v>-571769.1321169514</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5691,24 +5735,21 @@
         <v>857.1688</v>
       </c>
       <c r="G157" t="n">
-        <v>-570911.9633169514</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5730,24 +5771,21 @@
         <v>10388.6522</v>
       </c>
       <c r="G158" t="n">
-        <v>-581300.6155169514</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5769,24 +5807,21 @@
         <v>371.427</v>
       </c>
       <c r="G159" t="n">
-        <v>-581672.0425169514</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5808,24 +5843,21 @@
         <v>669.5832</v>
       </c>
       <c r="G160" t="n">
-        <v>-582341.6257169514</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5847,24 +5879,21 @@
         <v>11838.4043</v>
       </c>
       <c r="G161" t="n">
-        <v>-582341.6257169514</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5886,26 +5915,21 @@
         <v>6728</v>
       </c>
       <c r="G162" t="n">
-        <v>-575613.6257169514</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>82</v>
-      </c>
-      <c r="J162" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5927,24 +5951,21 @@
         <v>12223.4635</v>
       </c>
       <c r="G163" t="n">
-        <v>-575613.6257169514</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5966,24 +5987,21 @@
         <v>13690.1125</v>
       </c>
       <c r="G164" t="n">
-        <v>-575613.6257169514</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6005,24 +6023,21 @@
         <v>670</v>
       </c>
       <c r="G165" t="n">
-        <v>-575613.6257169514</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6044,26 +6059,21 @@
         <v>159.7715</v>
       </c>
       <c r="G166" t="n">
-        <v>-575773.3972169515</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="J166" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6085,26 +6095,21 @@
         <v>181.331</v>
       </c>
       <c r="G167" t="n">
-        <v>-575592.0662169515</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>81.44</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6126,24 +6131,21 @@
         <v>58937.7573</v>
       </c>
       <c r="G168" t="n">
-        <v>-634529.8235169514</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
